--- a/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
+++ b/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/liv_026000-series-metadata-AMD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D074D6FC-7F8A-694C-899D-4754B6D36504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EEDAE4-4C36-794A-B731-4DA9B5766520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -892,9 +892,6 @@
     <t>Anonymous; [L. Nicholson]; Nathaniel Henry Boston</t>
   </si>
   <si>
-    <t>Henry Boston, African Native Pastor: "A Brief Sketch of the Life and Death of the Late Rev. Henry Boston, First Native Minister of the Bullom Mission. By his Son."</t>
-  </si>
-  <si>
     <t>November 1874</t>
   </si>
   <si>
@@ -1142,6 +1139,9 @@
   </si>
   <si>
     <t>Metadata for Items from Adam Matthew Digital: “BIPOC Voices in the Victorian Periodical Press” (https://onemorevoice.org/bipoc-voices/bv-home.html) (2021-22), CC BY 4.0</t>
+  </si>
+  <si>
+    <t>Henry Boston, African Native Pastor: "A Brief Sketch of the Life and Death of the Late Rev. Henry Boston, First Native Minister of the Bullom Mission. By his Son"</t>
   </si>
 </sst>
 </file>
@@ -1648,8 +1648,8 @@
   <dimension ref="A1:AC993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:S1"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1679,7 +1679,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -3929,16 +3929,16 @@
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9" t="s">
-        <v>274</v>
+        <v>357</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J36" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="K36" s="13" t="s">
         <v>275</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>276</v>
       </c>
       <c r="L36" s="9">
         <v>1</v>
@@ -3956,13 +3956,13 @@
         <v>46</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R36" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S36" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>21</v>
@@ -3996,16 +3996,16 @@
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J37" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="K37" s="13" t="s">
         <v>275</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>276</v>
       </c>
       <c r="L37" s="9">
         <v>1</v>
@@ -4023,13 +4023,13 @@
         <v>228</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R37" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>21</v>
@@ -4063,16 +4063,16 @@
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J38" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="K38" s="13" t="s">
         <v>275</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>276</v>
       </c>
       <c r="L38" s="9">
         <v>1</v>
@@ -4090,13 +4090,13 @@
         <v>228</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R38" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S38" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>21</v>
@@ -4126,20 +4126,20 @@
         <v>21</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J39" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="K39" s="13" t="s">
         <v>275</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>276</v>
       </c>
       <c r="L39" s="9">
         <v>1</v>
@@ -4157,13 +4157,13 @@
         <v>46</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R39" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>21</v>
@@ -4193,20 +4193,20 @@
         <v>21</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J40" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="K40" s="13" t="s">
         <v>294</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>295</v>
       </c>
       <c r="L40" s="9">
         <v>1</v>
@@ -4224,13 +4224,13 @@
         <v>46</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R40" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>21</v>
@@ -4260,20 +4260,20 @@
         <v>21</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J41" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="K41" s="13" t="s">
         <v>294</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>295</v>
       </c>
       <c r="L41" s="9">
         <v>1</v>
@@ -4282,22 +4282,22 @@
         <v>12</v>
       </c>
       <c r="N41" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="O41" s="9" t="s">
         <v>301</v>
-      </c>
-      <c r="O41" s="9" t="s">
-        <v>302</v>
       </c>
       <c r="P41" s="9" t="s">
         <v>46</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R41" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S41" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>21</v>
@@ -4327,20 +4327,20 @@
         <v>21</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J42" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K42" s="13" t="s">
         <v>308</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>309</v>
       </c>
       <c r="L42" s="9">
         <v>2</v>
@@ -4358,13 +4358,13 @@
         <v>46</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R42" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S42" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>21</v>
@@ -4394,20 +4394,20 @@
         <v>21</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J43" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="K43" s="13" t="s">
         <v>315</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>316</v>
       </c>
       <c r="L43" s="9">
         <v>2</v>
@@ -4425,13 +4425,13 @@
         <v>53</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="R43" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
@@ -4446,7 +4446,7 @@
     </row>
     <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>21</v>
@@ -4465,16 +4465,16 @@
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J44" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="K44" s="13" t="s">
         <v>315</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>316</v>
       </c>
       <c r="L44" s="9">
         <v>2</v>
@@ -4492,13 +4492,13 @@
         <v>53</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R44" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S44" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>21</v>
@@ -4528,20 +4528,20 @@
         <v>21</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J45" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="K45" s="13" t="s">
         <v>326</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>327</v>
       </c>
       <c r="L45" s="9">
         <v>2</v>
@@ -4559,13 +4559,13 @@
         <v>53</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R45" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S45" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>21</v>
@@ -4599,16 +4599,16 @@
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J46" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="K46" s="13" t="s">
         <v>326</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>327</v>
       </c>
       <c r="L46" s="9">
         <v>2</v>
@@ -4617,22 +4617,22 @@
         <v>15</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P46" s="9" t="s">
         <v>46</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R46" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S46" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>21</v>
@@ -4662,20 +4662,20 @@
         <v>21</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J47" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="K47" s="13" t="s">
         <v>338</v>
-      </c>
-      <c r="K47" s="13" t="s">
-        <v>339</v>
       </c>
       <c r="L47" s="9">
         <v>2</v>
@@ -4693,13 +4693,13 @@
         <v>46</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R47" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S47" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
@@ -4714,7 +4714,7 @@
     </row>
     <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>21</v>
@@ -4729,20 +4729,20 @@
         <v>21</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J48" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="K48" s="13" t="s">
         <v>338</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>339</v>
       </c>
       <c r="L48" s="9">
         <v>2</v>
@@ -4760,13 +4760,13 @@
         <v>46</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R48" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S48" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>21</v>
@@ -4796,20 +4796,20 @@
         <v>21</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J49" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="K49" s="13" t="s">
         <v>338</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>339</v>
       </c>
       <c r="L49" s="9">
         <v>2</v>
@@ -4818,22 +4818,22 @@
         <v>16</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P49" s="9" t="s">
         <v>46</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R49" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S49" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>21</v>
@@ -4863,20 +4863,20 @@
         <v>21</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J50" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="K50" s="13" t="s">
         <v>338</v>
-      </c>
-      <c r="K50" s="13" t="s">
-        <v>339</v>
       </c>
       <c r="L50" s="9">
         <v>2</v>
@@ -4894,13 +4894,13 @@
         <v>46</v>
       </c>
       <c r="Q50" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R50" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S50" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="51" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>21</v>
@@ -4930,20 +4930,20 @@
         <v>21</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J51" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="K51" s="13" t="s">
         <v>338</v>
-      </c>
-      <c r="K51" s="13" t="s">
-        <v>339</v>
       </c>
       <c r="L51" s="9">
         <v>2</v>
@@ -4961,13 +4961,13 @@
         <v>46</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R51" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S51" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>

--- a/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
+++ b/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EEDAE4-4C36-794A-B731-4DA9B5766520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F901A7-4687-2B45-84FA-F5EDB004647B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,9 +148,6 @@
     <t>Anonymous; Anonymous</t>
   </si>
   <si>
-    <t>The Amazons: [Amazonian Battle Poem]</t>
-  </si>
-  <si>
     <t>May 1851</t>
   </si>
   <si>
@@ -218,9 +215,6 @@
   </si>
   <si>
     <t>Anonymous; Thomas King</t>
-  </si>
-  <si>
-    <t>Stedfast Faith</t>
   </si>
   <si>
     <t>September 1851</t>
@@ -1142,6 +1136,12 @@
   </si>
   <si>
     <t>Henry Boston, African Native Pastor: "A Brief Sketch of the Life and Death of the Late Rev. Henry Boston, First Native Minister of the Bullom Mission. By his Son"</t>
+  </si>
+  <si>
+    <t>Stedfast Faith—Mark X. 29, 30</t>
+  </si>
+  <si>
+    <t>The Amazons</t>
   </si>
 </sst>
 </file>
@@ -1648,8 +1648,8 @@
   <dimension ref="A1:AC993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1679,7 +1679,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -1963,16 +1963,16 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="15" t="s">
-        <v>42</v>
+        <v>357</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>44</v>
       </c>
       <c r="L6" s="9">
         <v>1</v>
@@ -1981,20 +1981,20 @@
         <v>14</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>21</v>
@@ -2024,20 +2024,20 @@
         <v>21</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>44</v>
       </c>
       <c r="L7" s="9">
         <v>1</v>
@@ -2046,20 +2046,20 @@
         <v>14</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="R7" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>21</v>
@@ -2089,20 +2089,20 @@
         <v>21</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="L8" s="9">
         <v>1</v>
@@ -2111,20 +2111,20 @@
         <v>17</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>21</v>
@@ -2154,20 +2154,20 @@
         <v>21</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>66</v>
+        <v>356</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L9" s="9">
         <v>1</v>
@@ -2176,20 +2176,20 @@
         <v>18</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R9" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>21</v>
@@ -2219,20 +2219,20 @@
         <v>21</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="K10" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>77</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9">
@@ -2243,16 +2243,16 @@
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R10" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>21</v>
@@ -2282,20 +2282,20 @@
         <v>21</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="K11" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="L11" s="9">
         <v>1</v>
@@ -2304,20 +2304,20 @@
         <v>2</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R11" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>21</v>
@@ -2347,20 +2347,20 @@
         <v>21</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L12" s="9">
         <v>1</v>
@@ -2369,20 +2369,20 @@
         <v>19</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R12" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>21</v>
@@ -2412,20 +2412,20 @@
         <v>21</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L13" s="9">
         <v>2</v>
@@ -2434,20 +2434,20 @@
         <v>3</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R13" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>21</v>
@@ -2477,20 +2477,20 @@
         <v>21</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L14" s="9">
         <v>2</v>
@@ -2499,20 +2499,20 @@
         <v>4</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R14" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>21</v>
@@ -2542,20 +2542,20 @@
         <v>21</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L15" s="9">
         <v>2</v>
@@ -2564,20 +2564,20 @@
         <v>6</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R15" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>21</v>
@@ -2607,20 +2607,20 @@
         <v>21</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L16" s="9">
         <v>2</v>
@@ -2629,20 +2629,20 @@
         <v>10</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R16" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>21</v>
@@ -2672,20 +2672,20 @@
         <v>21</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L17" s="9">
         <v>2</v>
@@ -2698,16 +2698,16 @@
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R17" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>21</v>
@@ -2737,20 +2737,20 @@
         <v>21</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L18" s="9">
         <v>2</v>
@@ -2759,20 +2759,20 @@
         <v>9</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O18" s="9"/>
       <c r="P18" s="9" t="s">
         <v>24</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="R18" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>21</v>
@@ -2802,20 +2802,20 @@
         <v>21</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>25</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L19" s="9">
         <v>2</v>
@@ -2824,20 +2824,20 @@
         <v>10</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="9" t="s">
         <v>24</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R19" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>21</v>
@@ -2867,20 +2867,20 @@
         <v>21</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I20" s="17" t="s">
         <v>25</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L20" s="9">
         <v>2</v>
@@ -2889,20 +2889,20 @@
         <v>11</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O20" s="9"/>
       <c r="P20" s="9" t="s">
         <v>24</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R20" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>21</v>
@@ -2932,20 +2932,20 @@
         <v>21</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L21" s="9">
         <v>2</v>
@@ -2954,20 +2954,20 @@
         <v>12</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O21" s="9"/>
       <c r="P21" s="9" t="s">
         <v>24</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="R21" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>21</v>
@@ -2997,20 +2997,20 @@
         <v>21</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L22" s="9">
         <v>3</v>
@@ -3026,13 +3026,13 @@
         <v>24</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="R22" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>21</v>
@@ -3062,20 +3062,20 @@
         <v>21</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L23" s="9">
         <v>3</v>
@@ -3084,20 +3084,20 @@
         <v>7</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O23" s="9"/>
       <c r="P23" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R23" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
@@ -3112,7 +3112,7 @@
     </row>
     <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>21</v>
@@ -3127,20 +3127,20 @@
         <v>21</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L24" s="9">
         <v>3</v>
@@ -3149,20 +3149,20 @@
         <v>9</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O24" s="9"/>
       <c r="P24" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R24" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>21</v>
@@ -3192,20 +3192,20 @@
         <v>21</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L25" s="9">
         <v>3</v>
@@ -3214,20 +3214,20 @@
         <v>11</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O25" s="9"/>
       <c r="P25" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R25" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>21</v>
@@ -3257,20 +3257,20 @@
         <v>21</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L26" s="9">
         <v>4</v>
@@ -3279,20 +3279,20 @@
         <v>6</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O26" s="9"/>
       <c r="P26" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="R26" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>21</v>
@@ -3322,20 +3322,20 @@
         <v>21</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L27" s="9">
         <v>4</v>
@@ -3344,20 +3344,20 @@
         <v>7</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O27" s="9"/>
       <c r="P27" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="R27" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>21</v>
@@ -3387,20 +3387,20 @@
         <v>21</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L28" s="9">
         <v>1</v>
@@ -3413,16 +3413,16 @@
       </c>
       <c r="O28" s="9"/>
       <c r="P28" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R28" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>21</v>
@@ -3452,22 +3452,22 @@
         <v>21</v>
       </c>
       <c r="F29" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>220</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L29" s="9">
         <v>1</v>
@@ -3482,16 +3482,16 @@
         <v>2</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R29" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
@@ -3506,7 +3506,7 @@
     </row>
     <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>21</v>
@@ -3521,20 +3521,20 @@
         <v>21</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L30" s="9">
         <v>1</v>
@@ -3549,16 +3549,16 @@
         <v>2</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="R30" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>21</v>
@@ -3588,22 +3588,22 @@
         <v>21</v>
       </c>
       <c r="F31" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="H31" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>234</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L31" s="9">
         <v>1</v>
@@ -3618,16 +3618,16 @@
         <v>44198</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="R31" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>21</v>
@@ -3657,20 +3657,20 @@
         <v>21</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L32" s="9">
         <v>1</v>
@@ -3685,16 +3685,16 @@
         <v>44198</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R32" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>21</v>
@@ -3724,20 +3724,20 @@
         <v>21</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L33" s="9">
         <v>1</v>
@@ -3755,13 +3755,13 @@
         <v>24</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="R33" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>21</v>
@@ -3791,20 +3791,20 @@
         <v>21</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L34" s="9">
         <v>1</v>
@@ -3819,16 +3819,16 @@
         <v>2</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="R34" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>21</v>
@@ -3858,20 +3858,20 @@
         <v>21</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L35" s="9">
         <v>1</v>
@@ -3880,22 +3880,22 @@
         <v>9</v>
       </c>
       <c r="N35" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="P35" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="O35" s="9" t="s">
+      <c r="Q35" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="P35" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q35" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="R35" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S35" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>21</v>
@@ -3925,20 +3925,20 @@
         <v>21</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L36" s="9">
         <v>1</v>
@@ -3953,16 +3953,16 @@
         <v>44198</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="R36" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S36" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>21</v>
@@ -3992,20 +3992,20 @@
         <v>21</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L37" s="9">
         <v>1</v>
@@ -4020,16 +4020,16 @@
         <v>2</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="R37" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>21</v>
@@ -4059,20 +4059,20 @@
         <v>21</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L38" s="9">
         <v>1</v>
@@ -4087,16 +4087,16 @@
         <v>1</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="R38" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S38" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>21</v>
@@ -4126,20 +4126,20 @@
         <v>21</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L39" s="9">
         <v>1</v>
@@ -4154,16 +4154,16 @@
         <v>2</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="R39" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>21</v>
@@ -4193,20 +4193,20 @@
         <v>21</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L40" s="9">
         <v>1</v>
@@ -4221,16 +4221,16 @@
         <v>2</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R40" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>21</v>
@@ -4260,20 +4260,20 @@
         <v>21</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L41" s="9">
         <v>1</v>
@@ -4282,22 +4282,22 @@
         <v>12</v>
       </c>
       <c r="N41" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q41" s="9" t="s">
         <v>300</v>
-      </c>
-      <c r="O41" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="P41" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q41" s="9" t="s">
-        <v>302</v>
       </c>
       <c r="R41" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S41" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>21</v>
@@ -4327,20 +4327,20 @@
         <v>21</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L42" s="9">
         <v>2</v>
@@ -4355,16 +4355,16 @@
         <v>2</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="R42" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S42" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>21</v>
@@ -4394,20 +4394,20 @@
         <v>21</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L43" s="9">
         <v>2</v>
@@ -4422,16 +4422,16 @@
         <v>2</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="R43" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
@@ -4446,7 +4446,7 @@
     </row>
     <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>21</v>
@@ -4465,16 +4465,16 @@
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L44" s="9">
         <v>2</v>
@@ -4489,16 +4489,16 @@
         <v>2</v>
       </c>
       <c r="P44" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="R44" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S44" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>21</v>
@@ -4528,20 +4528,20 @@
         <v>21</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L45" s="9">
         <v>2</v>
@@ -4556,16 +4556,16 @@
         <v>2</v>
       </c>
       <c r="P45" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="R45" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S45" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>21</v>
@@ -4595,20 +4595,20 @@
         <v>21</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L46" s="9">
         <v>2</v>
@@ -4617,22 +4617,22 @@
         <v>15</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="R46" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S46" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>21</v>
@@ -4662,20 +4662,20 @@
         <v>21</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L47" s="9">
         <v>2</v>
@@ -4690,16 +4690,16 @@
         <v>1</v>
       </c>
       <c r="P47" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="R47" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S47" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
@@ -4714,7 +4714,7 @@
     </row>
     <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>21</v>
@@ -4729,20 +4729,20 @@
         <v>21</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L48" s="9">
         <v>2</v>
@@ -4757,16 +4757,16 @@
         <v>44198</v>
       </c>
       <c r="P48" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="R48" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S48" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>21</v>
@@ -4796,20 +4796,20 @@
         <v>21</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L49" s="9">
         <v>2</v>
@@ -4818,22 +4818,22 @@
         <v>16</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P49" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="R49" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S49" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>21</v>
@@ -4863,20 +4863,20 @@
         <v>21</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L50" s="9">
         <v>2</v>
@@ -4891,16 +4891,16 @@
         <v>44198</v>
       </c>
       <c r="P50" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q50" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="R50" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S50" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="51" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>21</v>
@@ -4930,20 +4930,20 @@
         <v>21</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L51" s="9">
         <v>2</v>
@@ -4958,16 +4958,16 @@
         <v>2</v>
       </c>
       <c r="P51" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="R51" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S51" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
@@ -33783,7 +33783,7 @@
     </row>
     <row r="981" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B981" s="21"/>
       <c r="C981" s="21"/>

--- a/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
+++ b/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F901A7-4687-2B45-84FA-F5EDB004647B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE993DFC-D0A3-F647-9824-659954FB9327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,9 +346,6 @@
     <t>Anoynymous; Anonymous</t>
   </si>
   <si>
-    <t>Indian Snake Catcher</t>
-  </si>
-  <si>
     <t>March 1852</t>
   </si>
   <si>
@@ -469,9 +466,6 @@
     <t>Anonymous; Trudo Audato</t>
   </si>
   <si>
-    <t>The Dahomians: [Letter to King George II]</t>
-  </si>
-  <si>
     <t>A letter from the King of Dahomey to King George II</t>
   </si>
   <si>
@@ -1142,6 +1136,12 @@
   </si>
   <si>
     <t>The Amazons</t>
+  </si>
+  <si>
+    <t>Indian Snake-Catcher</t>
+  </si>
+  <si>
+    <t>The Dahomians</t>
   </si>
 </sst>
 </file>
@@ -1360,7 +1360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1430,6 +1430,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1648,8 +1651,8 @@
   <dimension ref="A1:AC993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1679,7 +1682,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -1819,7 +1822,7 @@
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -1884,7 +1887,7 @@
       <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -1949,7 +1952,7 @@
       <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -1963,7 +1966,7 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>25</v>
@@ -2014,7 +2017,7 @@
       <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -2079,7 +2082,7 @@
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -2144,7 +2147,7 @@
       <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -2158,7 +2161,7 @@
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>25</v>
@@ -2209,7 +2212,7 @@
       <c r="B10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -2272,7 +2275,7 @@
       <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -2337,7 +2340,7 @@
       <c r="B12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -2402,7 +2405,7 @@
       <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -2416,16 +2419,16 @@
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>100</v>
+        <v>356</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>102</v>
       </c>
       <c r="L13" s="9">
         <v>2</v>
@@ -2434,20 +2437,20 @@
         <v>3</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q13" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="R13" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
@@ -2462,12 +2465,12 @@
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -2477,20 +2480,20 @@
         <v>21</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>111</v>
       </c>
       <c r="L14" s="9">
         <v>2</v>
@@ -2499,7 +2502,7 @@
         <v>4</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="9" t="s">
@@ -2512,7 +2515,7 @@
         <v>29</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
@@ -2527,7 +2530,7 @@
     </row>
     <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>21</v>
@@ -2542,20 +2545,20 @@
         <v>21</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>118</v>
       </c>
       <c r="L15" s="9">
         <v>2</v>
@@ -2564,20 +2567,20 @@
         <v>6</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="9" t="s">
         <v>52</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R15" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -2592,7 +2595,7 @@
     </row>
     <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>21</v>
@@ -2607,20 +2610,20 @@
         <v>21</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>126</v>
       </c>
       <c r="L16" s="9">
         <v>2</v>
@@ -2629,20 +2632,20 @@
         <v>10</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q16" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="R16" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
@@ -2657,7 +2660,7 @@
     </row>
     <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>21</v>
@@ -2672,20 +2675,20 @@
         <v>21</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>133</v>
+        <v>357</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J17" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>126</v>
       </c>
       <c r="L17" s="9">
         <v>2</v>
@@ -2701,13 +2704,13 @@
         <v>45</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R17" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
@@ -2722,7 +2725,7 @@
     </row>
     <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>21</v>
@@ -2737,20 +2740,20 @@
         <v>21</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L18" s="9">
         <v>2</v>
@@ -2759,20 +2762,20 @@
         <v>9</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O18" s="9"/>
       <c r="P18" s="9" t="s">
         <v>24</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="R18" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
@@ -2787,7 +2790,7 @@
     </row>
     <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>21</v>
@@ -2802,20 +2805,20 @@
         <v>21</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>25</v>
       </c>
       <c r="J19" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>126</v>
       </c>
       <c r="L19" s="9">
         <v>2</v>
@@ -2824,20 +2827,20 @@
         <v>10</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="9" t="s">
         <v>24</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R19" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
@@ -2852,7 +2855,7 @@
     </row>
     <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>21</v>
@@ -2867,20 +2870,20 @@
         <v>21</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I20" s="17" t="s">
         <v>25</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L20" s="9">
         <v>2</v>
@@ -2889,20 +2892,20 @@
         <v>11</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O20" s="9"/>
       <c r="P20" s="9" t="s">
         <v>24</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R20" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
@@ -2917,7 +2920,7 @@
     </row>
     <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>21</v>
@@ -2932,20 +2935,20 @@
         <v>21</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L21" s="9">
         <v>2</v>
@@ -2954,20 +2957,20 @@
         <v>12</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O21" s="9"/>
       <c r="P21" s="9" t="s">
         <v>24</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="R21" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
@@ -2982,7 +2985,7 @@
     </row>
     <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>21</v>
@@ -2997,20 +3000,20 @@
         <v>21</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L22" s="9">
         <v>3</v>
@@ -3026,13 +3029,13 @@
         <v>24</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R22" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
@@ -3047,7 +3050,7 @@
     </row>
     <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>21</v>
@@ -3062,20 +3065,20 @@
         <v>21</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L23" s="9">
         <v>3</v>
@@ -3084,20 +3087,20 @@
         <v>7</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O23" s="9"/>
       <c r="P23" s="9" t="s">
         <v>52</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R23" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
@@ -3112,7 +3115,7 @@
     </row>
     <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>21</v>
@@ -3127,20 +3130,20 @@
         <v>21</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L24" s="9">
         <v>3</v>
@@ -3149,20 +3152,20 @@
         <v>9</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O24" s="9"/>
       <c r="P24" s="9" t="s">
         <v>52</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R24" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
@@ -3177,7 +3180,7 @@
     </row>
     <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>21</v>
@@ -3192,20 +3195,20 @@
         <v>21</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L25" s="9">
         <v>3</v>
@@ -3214,20 +3217,20 @@
         <v>11</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O25" s="9"/>
       <c r="P25" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R25" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
@@ -3242,7 +3245,7 @@
     </row>
     <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>21</v>
@@ -3257,20 +3260,20 @@
         <v>21</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L26" s="9">
         <v>4</v>
@@ -3279,20 +3282,20 @@
         <v>6</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O26" s="9"/>
       <c r="P26" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R26" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
@@ -3307,7 +3310,7 @@
     </row>
     <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>21</v>
@@ -3322,20 +3325,20 @@
         <v>21</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L27" s="9">
         <v>4</v>
@@ -3344,20 +3347,20 @@
         <v>7</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O27" s="9"/>
       <c r="P27" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="R27" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
@@ -3372,7 +3375,7 @@
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>21</v>
@@ -3387,20 +3390,20 @@
         <v>21</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L28" s="9">
         <v>1</v>
@@ -3416,13 +3419,13 @@
         <v>52</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="R28" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
@@ -3437,7 +3440,7 @@
     </row>
     <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>21</v>
@@ -3452,22 +3455,22 @@
         <v>21</v>
       </c>
       <c r="F29" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>216</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>218</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L29" s="9">
         <v>1</v>
@@ -3485,13 +3488,13 @@
         <v>95</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R29" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
@@ -3506,7 +3509,7 @@
     </row>
     <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>21</v>
@@ -3521,20 +3524,20 @@
         <v>21</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L30" s="9">
         <v>1</v>
@@ -3549,16 +3552,16 @@
         <v>2</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="R30" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
@@ -3573,7 +3576,7 @@
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>21</v>
@@ -3588,22 +3591,22 @@
         <v>21</v>
       </c>
       <c r="F31" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="H31" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L31" s="9">
         <v>1</v>
@@ -3618,16 +3621,16 @@
         <v>44198</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="R31" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
@@ -3642,7 +3645,7 @@
     </row>
     <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>21</v>
@@ -3657,20 +3660,20 @@
         <v>21</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L32" s="9">
         <v>1</v>
@@ -3688,13 +3691,13 @@
         <v>45</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="R32" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
@@ -3709,7 +3712,7 @@
     </row>
     <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>21</v>
@@ -3724,20 +3727,20 @@
         <v>21</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L33" s="9">
         <v>1</v>
@@ -3755,13 +3758,13 @@
         <v>24</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="R33" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
@@ -3776,7 +3779,7 @@
     </row>
     <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>21</v>
@@ -3791,20 +3794,20 @@
         <v>21</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L34" s="9">
         <v>1</v>
@@ -3819,16 +3822,16 @@
         <v>2</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="R34" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>21</v>
@@ -3858,20 +3861,20 @@
         <v>21</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L35" s="9">
         <v>1</v>
@@ -3880,22 +3883,22 @@
         <v>9</v>
       </c>
       <c r="N35" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="P35" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="O35" s="9" t="s">
+      <c r="Q35" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="P35" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q35" s="9" t="s">
-        <v>268</v>
       </c>
       <c r="R35" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S35" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
@@ -3910,7 +3913,7 @@
     </row>
     <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>21</v>
@@ -3925,20 +3928,20 @@
         <v>21</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L36" s="9">
         <v>1</v>
@@ -3956,13 +3959,13 @@
         <v>45</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="R36" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S36" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
@@ -3977,7 +3980,7 @@
     </row>
     <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>21</v>
@@ -3992,20 +3995,20 @@
         <v>21</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L37" s="9">
         <v>1</v>
@@ -4020,16 +4023,16 @@
         <v>2</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="R37" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
@@ -4044,7 +4047,7 @@
     </row>
     <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>21</v>
@@ -4059,20 +4062,20 @@
         <v>21</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L38" s="9">
         <v>1</v>
@@ -4087,16 +4090,16 @@
         <v>1</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="R38" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S38" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
@@ -4111,7 +4114,7 @@
     </row>
     <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>21</v>
@@ -4126,20 +4129,20 @@
         <v>21</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L39" s="9">
         <v>1</v>
@@ -4157,13 +4160,13 @@
         <v>45</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="R39" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
@@ -4178,7 +4181,7 @@
     </row>
     <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>21</v>
@@ -4193,20 +4196,20 @@
         <v>21</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L40" s="9">
         <v>1</v>
@@ -4224,13 +4227,13 @@
         <v>45</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="R40" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
@@ -4245,7 +4248,7 @@
     </row>
     <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>21</v>
@@ -4260,20 +4263,20 @@
         <v>21</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L41" s="9">
         <v>1</v>
@@ -4282,22 +4285,22 @@
         <v>12</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P41" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="R41" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S41" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
@@ -4312,7 +4315,7 @@
     </row>
     <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>21</v>
@@ -4327,20 +4330,20 @@
         <v>21</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L42" s="9">
         <v>2</v>
@@ -4358,13 +4361,13 @@
         <v>45</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="R42" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S42" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
@@ -4379,7 +4382,7 @@
     </row>
     <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>21</v>
@@ -4394,20 +4397,20 @@
         <v>21</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L43" s="9">
         <v>2</v>
@@ -4425,13 +4428,13 @@
         <v>52</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R43" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
@@ -4446,7 +4449,7 @@
     </row>
     <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>21</v>
@@ -4465,16 +4468,16 @@
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L44" s="9">
         <v>2</v>
@@ -4492,13 +4495,13 @@
         <v>52</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="R44" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S44" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
@@ -4513,7 +4516,7 @@
     </row>
     <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>21</v>
@@ -4528,20 +4531,20 @@
         <v>21</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L45" s="9">
         <v>2</v>
@@ -4559,13 +4562,13 @@
         <v>52</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="R45" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S45" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
@@ -4580,7 +4583,7 @@
     </row>
     <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>21</v>
@@ -4595,20 +4598,20 @@
         <v>21</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L46" s="9">
         <v>2</v>
@@ -4617,22 +4620,22 @@
         <v>15</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P46" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="R46" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S46" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
@@ -4647,7 +4650,7 @@
     </row>
     <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>21</v>
@@ -4662,20 +4665,20 @@
         <v>21</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L47" s="9">
         <v>2</v>
@@ -4693,13 +4696,13 @@
         <v>45</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="R47" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S47" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
@@ -4714,7 +4717,7 @@
     </row>
     <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>21</v>
@@ -4729,20 +4732,20 @@
         <v>21</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L48" s="9">
         <v>2</v>
@@ -4760,13 +4763,13 @@
         <v>45</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="R48" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S48" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
@@ -4781,7 +4784,7 @@
     </row>
     <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>21</v>
@@ -4796,20 +4799,20 @@
         <v>21</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L49" s="9">
         <v>2</v>
@@ -4818,22 +4821,22 @@
         <v>16</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P49" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="R49" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S49" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
@@ -4848,7 +4851,7 @@
     </row>
     <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>21</v>
@@ -4863,20 +4866,20 @@
         <v>21</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L50" s="9">
         <v>2</v>
@@ -4894,13 +4897,13 @@
         <v>45</v>
       </c>
       <c r="Q50" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="R50" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S50" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
@@ -4915,7 +4918,7 @@
     </row>
     <row r="51" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>21</v>
@@ -4930,20 +4933,20 @@
         <v>21</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L51" s="9">
         <v>2</v>
@@ -4961,13 +4964,13 @@
         <v>45</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R51" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S51" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
@@ -33783,7 +33786,7 @@
     </row>
     <row r="981" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B981" s="21"/>
       <c r="C981" s="21"/>

--- a/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
+++ b/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE993DFC-D0A3-F647-9824-659954FB9327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E51937-4C6C-A446-A64C-D35B8B1078BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Archival items" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -718,9 +729,6 @@
     <t>Moule, A.E. [of poem by Dziao]</t>
   </si>
   <si>
-    <t>Praying for Rain in China: ["Plain Directions as to Prayer for Rain"]</t>
-  </si>
-  <si>
     <t>April 1874</t>
   </si>
   <si>
@@ -784,9 +792,6 @@
     <t>Anonymous; Daniel Olubi</t>
   </si>
   <si>
-    <t>Baptism and Death of an Aged Yoruba Woman</t>
-  </si>
-  <si>
     <t>July 1874</t>
   </si>
   <si>
@@ -805,9 +810,6 @@
     <t>Anonymous; Matiu Taupaki</t>
   </si>
   <si>
-    <t>Letter from a Maori Clergyman</t>
-  </si>
-  <si>
     <t>August 1874</t>
   </si>
   <si>
@@ -826,9 +828,6 @@
     <t>Anonymous; F.J. de Rozario</t>
   </si>
   <si>
-    <t>Preaching on a Tricycle</t>
-  </si>
-  <si>
     <t>June 1874</t>
   </si>
   <si>
@@ -1142,6 +1141,18 @@
   </si>
   <si>
     <t>The Dahomians</t>
+  </si>
+  <si>
+    <t>Praying for Rain in China: "Plain Directions as to Prayer for Rain"</t>
+  </si>
+  <si>
+    <t>Gleanings from Recent Letters. Baptism and Death of an Aged Yoruba Woman</t>
+  </si>
+  <si>
+    <t>Gleanings from Recent Letters. Letter from a Maori Clergyman</t>
+  </si>
+  <si>
+    <t>Gleanings from Recent Letters. Preaching on a Tricycle</t>
   </si>
 </sst>
 </file>
@@ -1650,9 +1661,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC993"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1682,7 +1693,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -1966,7 +1977,7 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="15" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>25</v>
@@ -2161,7 +2172,7 @@
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>25</v>
@@ -2419,7 +2430,7 @@
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>25</v>
@@ -2679,7 +2690,7 @@
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>25</v>
@@ -3461,16 +3472,16 @@
         <v>215</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>216</v>
+        <v>354</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J29" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="K29" s="13" t="s">
         <v>217</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>218</v>
       </c>
       <c r="L29" s="9">
         <v>1</v>
@@ -3488,13 +3499,13 @@
         <v>95</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R29" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
@@ -3509,7 +3520,7 @@
     </row>
     <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>21</v>
@@ -3524,20 +3535,20 @@
         <v>21</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="K30" s="13" t="s">
         <v>217</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>218</v>
       </c>
       <c r="L30" s="9">
         <v>1</v>
@@ -3552,16 +3563,16 @@
         <v>2</v>
       </c>
       <c r="P30" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q30" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="Q30" s="9" t="s">
-        <v>225</v>
       </c>
       <c r="R30" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
@@ -3576,7 +3587,7 @@
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>21</v>
@@ -3591,22 +3602,22 @@
         <v>21</v>
       </c>
       <c r="F31" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="H31" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J31" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="K31" s="13" t="s">
         <v>231</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>232</v>
       </c>
       <c r="L31" s="9">
         <v>1</v>
@@ -3621,16 +3632,16 @@
         <v>44198</v>
       </c>
       <c r="P31" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q31" s="9" t="s">
         <v>233</v>
-      </c>
-      <c r="Q31" s="9" t="s">
-        <v>234</v>
       </c>
       <c r="R31" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
@@ -3645,7 +3656,7 @@
     </row>
     <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>21</v>
@@ -3660,20 +3671,20 @@
         <v>21</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9" t="s">
-        <v>238</v>
+        <v>355</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L32" s="9">
         <v>1</v>
@@ -3691,13 +3702,13 @@
         <v>45</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="R32" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
@@ -3712,7 +3723,7 @@
     </row>
     <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>21</v>
@@ -3727,20 +3738,20 @@
         <v>21</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9" t="s">
-        <v>245</v>
+        <v>356</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L33" s="9">
         <v>1</v>
@@ -3758,13 +3769,13 @@
         <v>24</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="R33" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
@@ -3779,7 +3790,7 @@
     </row>
     <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>21</v>
@@ -3794,20 +3805,20 @@
         <v>21</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9" t="s">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L34" s="9">
         <v>1</v>
@@ -3822,16 +3833,16 @@
         <v>2</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="R34" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
@@ -3846,7 +3857,7 @@
     </row>
     <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>21</v>
@@ -3861,20 +3872,20 @@
         <v>21</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L35" s="9">
         <v>1</v>
@@ -3883,22 +3894,22 @@
         <v>9</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="R35" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S35" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
@@ -3913,7 +3924,7 @@
     </row>
     <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>21</v>
@@ -3928,20 +3939,20 @@
         <v>21</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L36" s="9">
         <v>1</v>
@@ -3959,13 +3970,13 @@
         <v>45</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="R36" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S36" s="9" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
@@ -3980,7 +3991,7 @@
     </row>
     <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>21</v>
@@ -3995,20 +4006,20 @@
         <v>21</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L37" s="9">
         <v>1</v>
@@ -4023,16 +4034,16 @@
         <v>2</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="R37" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
@@ -4047,7 +4058,7 @@
     </row>
     <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>21</v>
@@ -4062,20 +4073,20 @@
         <v>21</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L38" s="9">
         <v>1</v>
@@ -4090,16 +4101,16 @@
         <v>1</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="R38" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S38" s="9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
@@ -4114,7 +4125,7 @@
     </row>
     <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>21</v>
@@ -4129,20 +4140,20 @@
         <v>21</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L39" s="9">
         <v>1</v>
@@ -4160,13 +4171,13 @@
         <v>45</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="R39" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
@@ -4181,7 +4192,7 @@
     </row>
     <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>21</v>
@@ -4196,20 +4207,20 @@
         <v>21</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L40" s="9">
         <v>1</v>
@@ -4227,13 +4238,13 @@
         <v>45</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="R40" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
@@ -4248,7 +4259,7 @@
     </row>
     <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>21</v>
@@ -4263,20 +4274,20 @@
         <v>21</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L41" s="9">
         <v>1</v>
@@ -4285,22 +4296,22 @@
         <v>12</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P41" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="R41" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S41" s="9" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
@@ -4315,7 +4326,7 @@
     </row>
     <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>21</v>
@@ -4330,20 +4341,20 @@
         <v>21</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L42" s="9">
         <v>2</v>
@@ -4361,13 +4372,13 @@
         <v>45</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="R42" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S42" s="9" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
@@ -4382,7 +4393,7 @@
     </row>
     <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>21</v>
@@ -4397,20 +4408,20 @@
         <v>21</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L43" s="9">
         <v>2</v>
@@ -4428,13 +4439,13 @@
         <v>52</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="R43" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
@@ -4449,7 +4460,7 @@
     </row>
     <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>21</v>
@@ -4468,16 +4479,16 @@
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L44" s="9">
         <v>2</v>
@@ -4495,13 +4506,13 @@
         <v>52</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="R44" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S44" s="9" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
@@ -4516,7 +4527,7 @@
     </row>
     <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>21</v>
@@ -4531,20 +4542,20 @@
         <v>21</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L45" s="9">
         <v>2</v>
@@ -4562,13 +4573,13 @@
         <v>52</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="R45" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S45" s="9" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
@@ -4583,7 +4594,7 @@
     </row>
     <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>21</v>
@@ -4598,20 +4609,20 @@
         <v>21</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L46" s="9">
         <v>2</v>
@@ -4620,22 +4631,22 @@
         <v>15</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P46" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="R46" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S46" s="9" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
@@ -4650,7 +4661,7 @@
     </row>
     <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>21</v>
@@ -4665,20 +4676,20 @@
         <v>21</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L47" s="9">
         <v>2</v>
@@ -4696,13 +4707,13 @@
         <v>45</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="R47" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S47" s="9" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
@@ -4717,7 +4728,7 @@
     </row>
     <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>21</v>
@@ -4732,20 +4743,20 @@
         <v>21</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L48" s="9">
         <v>2</v>
@@ -4763,13 +4774,13 @@
         <v>45</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="R48" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S48" s="9" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
@@ -4784,7 +4795,7 @@
     </row>
     <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>21</v>
@@ -4799,20 +4810,20 @@
         <v>21</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L49" s="9">
         <v>2</v>
@@ -4821,22 +4832,22 @@
         <v>16</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P49" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="R49" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S49" s="9" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
@@ -4851,7 +4862,7 @@
     </row>
     <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>21</v>
@@ -4866,20 +4877,20 @@
         <v>21</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L50" s="9">
         <v>2</v>
@@ -4897,13 +4908,13 @@
         <v>45</v>
       </c>
       <c r="Q50" s="9" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="R50" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S50" s="9" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
@@ -4918,7 +4929,7 @@
     </row>
     <row r="51" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>21</v>
@@ -4933,20 +4944,20 @@
         <v>21</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L51" s="9">
         <v>2</v>
@@ -4964,13 +4975,13 @@
         <v>45</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="R51" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S51" s="9" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>

--- a/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
+++ b/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E51937-4C6C-A446-A64C-D35B8B1078BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78591491-C17B-954D-986C-E2AB4DA49C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -846,9 +846,6 @@
     <t>liv_026036</t>
   </si>
   <si>
-    <t>Anonymous [possibly, "A.S."]; [John Cain]; Anonymous</t>
-  </si>
-  <si>
     <t>A Hindu's Narrative of His Own Conversion</t>
   </si>
   <si>
@@ -1128,9 +1125,6 @@
     <t>Metadata for Items from Adam Matthew Digital: “BIPOC Voices in the Victorian Periodical Press” (https://onemorevoice.org/bipoc-voices/bv-home.html) (2021-22), CC BY 4.0</t>
   </si>
   <si>
-    <t>Henry Boston, African Native Pastor: "A Brief Sketch of the Life and Death of the Late Rev. Henry Boston, First Native Minister of the Bullom Mission. By his Son"</t>
-  </si>
-  <si>
     <t>Stedfast Faith—Mark X. 29, 30</t>
   </si>
   <si>
@@ -1153,6 +1147,12 @@
   </si>
   <si>
     <t>Gleanings from Recent Letters. Preaching on a Tricycle</t>
+  </si>
+  <si>
+    <t>Anonymous [possibly, "A.S."]; [John Cain]; Anonymous [possibly, "A.S."]</t>
+  </si>
+  <si>
+    <t>Henry Boston, African Native Pastor</t>
   </si>
 </sst>
 </file>
@@ -1661,9 +1661,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1693,7 +1693,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>25</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>25</v>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>25</v>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>25</v>
@@ -3472,7 +3472,7 @@
         <v>215</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>25</v>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>25</v>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>25</v>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>25</v>
@@ -3872,20 +3872,20 @@
         <v>21</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>255</v>
+        <v>356</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J35" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="K35" s="13" t="s">
         <v>257</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>258</v>
       </c>
       <c r="L35" s="9">
         <v>1</v>
@@ -3894,22 +3894,22 @@
         <v>9</v>
       </c>
       <c r="N35" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="O35" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="O35" s="9" t="s">
+      <c r="P35" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="P35" s="9" t="s">
+      <c r="Q35" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="Q35" s="9" t="s">
-        <v>262</v>
       </c>
       <c r="R35" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S35" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>21</v>
@@ -3939,20 +3939,20 @@
         <v>21</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J36" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="K36" s="13" t="s">
         <v>266</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>267</v>
       </c>
       <c r="L36" s="9">
         <v>1</v>
@@ -3970,13 +3970,13 @@
         <v>45</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R36" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S36" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>21</v>
@@ -4010,16 +4010,16 @@
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J37" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="K37" s="13" t="s">
         <v>266</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>267</v>
       </c>
       <c r="L37" s="9">
         <v>1</v>
@@ -4037,13 +4037,13 @@
         <v>223</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R37" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>21</v>
@@ -4077,16 +4077,16 @@
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J38" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="K38" s="13" t="s">
         <v>266</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>267</v>
       </c>
       <c r="L38" s="9">
         <v>1</v>
@@ -4104,13 +4104,13 @@
         <v>223</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R38" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S38" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
@@ -4125,7 +4125,7 @@
     </row>
     <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>21</v>
@@ -4140,20 +4140,20 @@
         <v>21</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J39" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="K39" s="13" t="s">
         <v>266</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>267</v>
       </c>
       <c r="L39" s="9">
         <v>1</v>
@@ -4171,13 +4171,13 @@
         <v>45</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R39" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>21</v>
@@ -4207,20 +4207,20 @@
         <v>21</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J40" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="K40" s="13" t="s">
         <v>285</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>286</v>
       </c>
       <c r="L40" s="9">
         <v>1</v>
@@ -4238,13 +4238,13 @@
         <v>45</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R40" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
@@ -4259,7 +4259,7 @@
     </row>
     <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>21</v>
@@ -4274,20 +4274,20 @@
         <v>21</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J41" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="K41" s="13" t="s">
         <v>285</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>286</v>
       </c>
       <c r="L41" s="9">
         <v>1</v>
@@ -4296,22 +4296,22 @@
         <v>12</v>
       </c>
       <c r="N41" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="O41" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="O41" s="9" t="s">
-        <v>293</v>
       </c>
       <c r="P41" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R41" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S41" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>21</v>
@@ -4341,20 +4341,20 @@
         <v>21</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J42" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="K42" s="13" t="s">
         <v>299</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>300</v>
       </c>
       <c r="L42" s="9">
         <v>2</v>
@@ -4372,13 +4372,13 @@
         <v>45</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R42" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S42" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>21</v>
@@ -4408,20 +4408,20 @@
         <v>21</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J43" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="K43" s="13" t="s">
         <v>306</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>307</v>
       </c>
       <c r="L43" s="9">
         <v>2</v>
@@ -4439,13 +4439,13 @@
         <v>52</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="R43" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>21</v>
@@ -4479,16 +4479,16 @@
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J44" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="K44" s="13" t="s">
         <v>306</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>307</v>
       </c>
       <c r="L44" s="9">
         <v>2</v>
@@ -4506,13 +4506,13 @@
         <v>52</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R44" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S44" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>21</v>
@@ -4542,20 +4542,20 @@
         <v>21</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J45" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="K45" s="13" t="s">
         <v>317</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>318</v>
       </c>
       <c r="L45" s="9">
         <v>2</v>
@@ -4573,13 +4573,13 @@
         <v>52</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="R45" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S45" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>21</v>
@@ -4613,16 +4613,16 @@
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J46" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="K46" s="13" t="s">
         <v>317</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>318</v>
       </c>
       <c r="L46" s="9">
         <v>2</v>
@@ -4631,22 +4631,22 @@
         <v>15</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P46" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R46" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S46" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
@@ -4661,7 +4661,7 @@
     </row>
     <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>21</v>
@@ -4676,20 +4676,20 @@
         <v>21</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J47" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="K47" s="13" t="s">
         <v>329</v>
-      </c>
-      <c r="K47" s="13" t="s">
-        <v>330</v>
       </c>
       <c r="L47" s="9">
         <v>2</v>
@@ -4707,13 +4707,13 @@
         <v>45</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R47" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S47" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
@@ -4728,7 +4728,7 @@
     </row>
     <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>21</v>
@@ -4743,20 +4743,20 @@
         <v>21</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J48" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="K48" s="13" t="s">
         <v>329</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>330</v>
       </c>
       <c r="L48" s="9">
         <v>2</v>
@@ -4774,13 +4774,13 @@
         <v>45</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="R48" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S48" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
@@ -4795,7 +4795,7 @@
     </row>
     <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>21</v>
@@ -4810,20 +4810,20 @@
         <v>21</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J49" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="K49" s="13" t="s">
         <v>329</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>330</v>
       </c>
       <c r="L49" s="9">
         <v>2</v>
@@ -4832,22 +4832,22 @@
         <v>16</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P49" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R49" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S49" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>21</v>
@@ -4877,20 +4877,20 @@
         <v>21</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J50" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="K50" s="13" t="s">
         <v>329</v>
-      </c>
-      <c r="K50" s="13" t="s">
-        <v>330</v>
       </c>
       <c r="L50" s="9">
         <v>2</v>
@@ -4908,13 +4908,13 @@
         <v>45</v>
       </c>
       <c r="Q50" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="R50" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S50" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="51" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>21</v>
@@ -4944,20 +4944,20 @@
         <v>21</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J51" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="K51" s="13" t="s">
         <v>329</v>
-      </c>
-      <c r="K51" s="13" t="s">
-        <v>330</v>
       </c>
       <c r="L51" s="9">
         <v>2</v>
@@ -4975,13 +4975,13 @@
         <v>45</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R51" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S51" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>

--- a/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
+++ b/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E51CE5-0B5D-B44A-A869-014097E19139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB40F127-D60F-F245-B469-7093F490644D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1044,9 +1044,6 @@
     <t>liv_026052</t>
   </si>
   <si>
-    <t>Gleanings from Recent Letters: How Collections are Made at Abeokuta</t>
-  </si>
-  <si>
     <t>How collections are made at Abeokuta</t>
   </si>
   <si>
@@ -1123,6 +1120,9 @@
   </si>
   <si>
     <t>Letters by Samuel Johnson; Samuel Cole; T.B. Wright; Samuel Pearce; D. Williams</t>
+  </si>
+  <si>
+    <t>Gleanings from Recent Letters. How Collections are Made at Abeokuta</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1194,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1240,6 +1240,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,7 +1362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1459,6 +1465,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1677,9 +1689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1709,7 +1721,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1993,7 +2005,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>25</v>
@@ -2018,7 +2030,7 @@
         <v>45</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>29</v>
@@ -2188,7 +2200,7 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>25</v>
@@ -2446,7 +2458,7 @@
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>25</v>
@@ -2706,7 +2718,7 @@
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>25</v>
@@ -2731,7 +2743,7 @@
         <v>45</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R17" s="5" t="s">
         <v>29</v>
@@ -3488,7 +3500,7 @@
         <v>213</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>25</v>
@@ -3555,7 +3567,7 @@
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>25</v>
@@ -3691,7 +3703,7 @@
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>25</v>
@@ -3758,7 +3770,7 @@
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>25</v>
@@ -3825,7 +3837,7 @@
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>25</v>
@@ -3888,7 +3900,7 @@
         <v>21</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
@@ -3959,7 +3971,7 @@
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>25</v>
@@ -4026,7 +4038,7 @@
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>25</v>
@@ -4093,7 +4105,7 @@
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>25</v>
@@ -4160,7 +4172,7 @@
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>25</v>
@@ -4357,11 +4369,11 @@
         <v>21</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>25</v>
@@ -4428,7 +4440,7 @@
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>25</v>
@@ -4491,7 +4503,7 @@
         <v>21</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5" t="s">
@@ -4562,7 +4574,7 @@
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>25</v>
@@ -4589,7 +4601,7 @@
         <v>51</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R45" s="5" t="s">
         <v>29</v>
@@ -4629,7 +4641,7 @@
       </c>
       <c r="G46" s="24"/>
       <c r="H46" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I46" s="24" t="s">
         <v>25</v>
@@ -4676,7 +4688,7 @@
       <c r="AC46" s="27"/>
     </row>
     <row r="47" spans="1:29" s="34" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="36" t="s">
         <v>317</v>
       </c>
       <c r="B47" s="32" t="s">
@@ -4692,7 +4704,7 @@
         <v>21</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G47" s="32"/>
       <c r="H47" s="32" t="s">
@@ -4721,7 +4733,7 @@
         <v>45</v>
       </c>
       <c r="Q47" s="32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R47" s="32" t="s">
         <v>29</v>
@@ -4760,8 +4772,8 @@
         <v>319</v>
       </c>
       <c r="G48" s="28"/>
-      <c r="H48" s="28" t="s">
-        <v>321</v>
+      <c r="H48" s="35" t="s">
+        <v>347</v>
       </c>
       <c r="I48" s="28" t="s">
         <v>25</v>
@@ -4788,13 +4800,13 @@
         <v>45</v>
       </c>
       <c r="Q48" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R48" s="28" t="s">
         <v>29</v>
       </c>
       <c r="S48" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T48" s="28"/>
       <c r="U48" s="28"/>

--- a/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
+++ b/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB40F127-D60F-F245-B469-7093F490644D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC43AF8E-2042-244E-982E-234E839EB4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="345">
   <si>
     <t xml:space="preserve">Creators: Dino Franco Felluga, Cassie Fletcher, Adrian S. Wisnicki </t>
   </si>
@@ -882,21 +882,9 @@
     <t>liv_026038</t>
   </si>
   <si>
-    <t>Testamony to a suffering woman</t>
-  </si>
-  <si>
     <t>https://www.churchmissionarysociety.amdigital.co.uk/Documents/Images/CMS_OX_Gleaner_1874_11/8#Articles</t>
   </si>
   <si>
-    <t>liv_026039</t>
-  </si>
-  <si>
-    <t>Report on Devon Indians</t>
-  </si>
-  <si>
-    <t>https://www.churchmissionarysociety.amdigital.co.uk/Documents/Images/CMS_OX_Gleaner_1874_11/9#Articles</t>
-  </si>
-  <si>
     <t>liv_026040</t>
   </si>
   <si>
@@ -1123,6 +1111,9 @@
   </si>
   <si>
     <t>Gleanings from Recent Letters. How Collections are Made at Abeokuta</t>
+  </si>
+  <si>
+    <t>Testamony to a suffering woman; report on Devon Indians</t>
   </si>
 </sst>
 </file>
@@ -1406,29 +1397,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1471,6 +1444,24 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1687,11 +1678,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC990"/>
+  <dimension ref="A1:AC989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1720,27 +1711,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="17" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="17"/>
+      <c r="A1" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="33"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -1753,27 +1744,27 @@
       <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="36"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -1785,7 +1776,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2005,7 +1996,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>25</v>
@@ -2030,7 +2021,7 @@
         <v>45</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>29</v>
@@ -2200,7 +2191,7 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>25</v>
@@ -2458,7 +2449,7 @@
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>25</v>
@@ -2718,7 +2709,7 @@
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>25</v>
@@ -2743,7 +2734,7 @@
         <v>45</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="R17" s="5" t="s">
         <v>29</v>
@@ -2843,14 +2834,14 @@
       <c r="E19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="15" t="s">
         <v>133</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="15" t="s">
         <v>25</v>
       </c>
       <c r="J19" s="8" t="s">
@@ -2872,7 +2863,7 @@
       <c r="P19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Q19" s="18" t="s">
+      <c r="Q19" s="15" t="s">
         <v>142</v>
       </c>
       <c r="R19" s="5" t="s">
@@ -2908,14 +2899,14 @@
       <c r="E20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="15" t="s">
         <v>133</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="15" t="s">
         <v>25</v>
       </c>
       <c r="J20" s="8" t="s">
@@ -2937,7 +2928,7 @@
       <c r="P20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Q20" s="18" t="s">
+      <c r="Q20" s="15" t="s">
         <v>148</v>
       </c>
       <c r="R20" s="5" t="s">
@@ -2973,7 +2964,7 @@
       <c r="E21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="15" t="s">
         <v>133</v>
       </c>
       <c r="G21" s="5"/>
@@ -3500,7 +3491,7 @@
         <v>213</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>25</v>
@@ -3567,7 +3558,7 @@
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>25</v>
@@ -3703,7 +3694,7 @@
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>25</v>
@@ -3770,7 +3761,7 @@
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>25</v>
@@ -3837,7 +3828,7 @@
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>25</v>
@@ -3900,7 +3891,7 @@
         <v>21</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
@@ -3971,7 +3962,7 @@
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>25</v>
@@ -4038,7 +4029,7 @@
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>25</v>
@@ -4065,13 +4056,13 @@
         <v>220</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="R37" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
@@ -4084,9 +4075,9 @@
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
     </row>
-    <row r="38" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>21</v>
@@ -4101,11 +4092,11 @@
         <v>21</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>25</v>
@@ -4123,22 +4114,22 @@
         <v>11</v>
       </c>
       <c r="N38" s="5">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O38" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R38" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
@@ -4151,9 +4142,9 @@
       <c r="AB38" s="6"/>
       <c r="AC38" s="6"/>
     </row>
-    <row r="39" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>21</v>
@@ -4168,29 +4159,29 @@
         <v>21</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="L39" s="5">
         <v>1</v>
       </c>
       <c r="M39" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N39" s="5">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="O39" s="5">
         <v>2</v>
@@ -4199,13 +4190,13 @@
         <v>45</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="R39" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
@@ -4220,7 +4211,7 @@
     </row>
     <row r="40" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>21</v>
@@ -4235,20 +4226,20 @@
         <v>21</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L40" s="5">
         <v>1</v>
@@ -4256,23 +4247,23 @@
       <c r="M40" s="5">
         <v>12</v>
       </c>
-      <c r="N40" s="5">
-        <v>136</v>
-      </c>
-      <c r="O40" s="5">
-        <v>2</v>
+      <c r="N40" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>282</v>
       </c>
       <c r="P40" s="5" t="s">
         <v>45</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="R40" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
@@ -4287,7 +4278,7 @@
     </row>
     <row r="41" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>21</v>
@@ -4302,44 +4293,44 @@
         <v>21</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="L41" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M41" s="5">
-        <v>12</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="O41" s="5" t="s">
-        <v>286</v>
+        <v>13</v>
+      </c>
+      <c r="N41" s="5">
+        <v>9</v>
+      </c>
+      <c r="O41" s="5">
+        <v>2</v>
       </c>
       <c r="P41" s="5" t="s">
         <v>45</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R41" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
@@ -4352,9 +4343,9 @@
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
     </row>
-    <row r="42" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>21</v>
@@ -4369,44 +4360,44 @@
         <v>21</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L42" s="5">
         <v>2</v>
       </c>
       <c r="M42" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N42" s="5">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="O42" s="5">
         <v>2</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="R42" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
@@ -4421,7 +4412,7 @@
     </row>
     <row r="43" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>21</v>
@@ -4436,20 +4427,20 @@
         <v>21</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L43" s="5">
         <v>2</v>
@@ -4458,7 +4449,7 @@
         <v>14</v>
       </c>
       <c r="N43" s="5">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="O43" s="5">
         <v>2</v>
@@ -4503,29 +4494,29 @@
         <v>21</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L44" s="5">
         <v>2</v>
       </c>
       <c r="M44" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N44" s="5">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="O44" s="5">
         <v>2</v>
@@ -4534,13 +4525,13 @@
         <v>51</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="R44" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S44" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
@@ -4554,272 +4545,238 @@
       <c r="AC44" s="6"/>
     </row>
     <row r="45" spans="1:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B45" s="5" t="s">
+      <c r="A45" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B45" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="I45" s="5" t="s">
+      <c r="F45" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="I45" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="K45" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="L45" s="18">
+        <v>2</v>
+      </c>
+      <c r="M45" s="18">
+        <v>15</v>
+      </c>
+      <c r="N45" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="K45" s="9" t="s">
+      <c r="O45" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="P45" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q45" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="L45" s="5">
+      <c r="R45" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="S45" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
+      <c r="Y45" s="18"/>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
+      <c r="AB45" s="21"/>
+      <c r="AC45" s="21"/>
+    </row>
+    <row r="46" spans="1:29" s="28" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="I46" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="K46" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="L46" s="26">
         <v>2</v>
       </c>
-      <c r="M45" s="5">
-        <v>15</v>
-      </c>
-      <c r="N45" s="5">
-        <v>26</v>
-      </c>
-      <c r="O45" s="5">
-        <v>2</v>
-      </c>
-      <c r="P45" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q45" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="R45" s="5" t="s">
+      <c r="M46" s="26">
+        <v>16</v>
+      </c>
+      <c r="N46" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="O46" s="27"/>
+      <c r="P46" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q46" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="R46" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="S45" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="6"/>
-    </row>
-    <row r="46" spans="1:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="I46" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="K46" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="L46" s="24">
-        <v>2</v>
-      </c>
-      <c r="M46" s="24">
-        <v>15</v>
-      </c>
-      <c r="N46" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="O46" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="P46" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q46" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="R46" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="S46" s="24" t="s">
+      <c r="S46" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="T46" s="24"/>
-      <c r="U46" s="24"/>
-      <c r="V46" s="24"/>
-      <c r="W46" s="24"/>
-      <c r="X46" s="24"/>
-      <c r="Y46" s="24"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
       <c r="Z46" s="27"/>
       <c r="AA46" s="27"/>
       <c r="AB46" s="27"/>
       <c r="AC46" s="27"/>
     </row>
-    <row r="47" spans="1:29" s="34" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" s="36" t="s">
+    <row r="47" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="G47" s="22"/>
+      <c r="H47" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="I47" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="K47" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="L47" s="22">
+        <v>2</v>
+      </c>
+      <c r="M47" s="22">
+        <v>16</v>
+      </c>
+      <c r="N47" s="22">
+        <v>41</v>
+      </c>
+      <c r="O47" s="22">
+        <v>2</v>
+      </c>
+      <c r="P47" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q47" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="B47" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="I47" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J47" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="K47" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="L47" s="32">
-        <v>2</v>
-      </c>
-      <c r="M47" s="32">
-        <v>16</v>
-      </c>
-      <c r="N47" s="32" t="s">
+      <c r="R47" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="S47" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="O47" s="33"/>
-      <c r="P47" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q47" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="R47" s="32" t="s">
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
+    </row>
+    <row r="48" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S47" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="T47" s="33"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="33"/>
-      <c r="W47" s="33"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="33"/>
-      <c r="Z47" s="33"/>
-      <c r="AA47" s="33"/>
-      <c r="AB47" s="33"/>
-      <c r="AC47" s="33"/>
-    </row>
-    <row r="48" spans="1:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="G48" s="28"/>
-      <c r="H48" s="35" t="s">
-        <v>347</v>
-      </c>
-      <c r="I48" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J48" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="K48" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="L48" s="28">
-        <v>2</v>
-      </c>
-      <c r="M48" s="28">
-        <v>16</v>
-      </c>
-      <c r="N48" s="28">
-        <v>41</v>
-      </c>
-      <c r="O48" s="28">
-        <v>2</v>
-      </c>
-      <c r="P48" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q48" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="R48" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="S48" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="T48" s="28"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="31"/>
-      <c r="AA48" s="31"/>
-      <c r="AB48" s="31"/>
-      <c r="AC48" s="31"/>
-    </row>
-    <row r="49" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+    </row>
+    <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -4837,9 +4794,7 @@
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
-      <c r="R49" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="R49" s="5"/>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
@@ -24507,31 +24462,31 @@
       <c r="AC683" s="6"/>
     </row>
     <row r="684" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A684" s="5"/>
-      <c r="B684" s="5"/>
-      <c r="C684" s="5"/>
-      <c r="D684" s="5"/>
-      <c r="E684" s="5"/>
-      <c r="F684" s="5"/>
-      <c r="G684" s="5"/>
-      <c r="H684" s="5"/>
-      <c r="I684" s="5"/>
-      <c r="J684" s="5"/>
-      <c r="K684" s="9"/>
-      <c r="L684" s="5"/>
-      <c r="M684" s="5"/>
-      <c r="N684" s="5"/>
-      <c r="O684" s="5"/>
-      <c r="P684" s="5"/>
-      <c r="Q684" s="5"/>
-      <c r="R684" s="5"/>
-      <c r="S684" s="5"/>
-      <c r="T684" s="5"/>
-      <c r="U684" s="5"/>
-      <c r="V684" s="5"/>
-      <c r="W684" s="5"/>
-      <c r="X684" s="5"/>
-      <c r="Y684" s="5"/>
+      <c r="A684" s="6"/>
+      <c r="B684" s="6"/>
+      <c r="C684" s="6"/>
+      <c r="D684" s="6"/>
+      <c r="E684" s="6"/>
+      <c r="F684" s="6"/>
+      <c r="G684" s="6"/>
+      <c r="H684" s="6"/>
+      <c r="I684" s="6"/>
+      <c r="J684" s="6"/>
+      <c r="K684" s="6"/>
+      <c r="L684" s="6"/>
+      <c r="M684" s="6"/>
+      <c r="N684" s="6"/>
+      <c r="O684" s="6"/>
+      <c r="P684" s="6"/>
+      <c r="Q684" s="6"/>
+      <c r="R684" s="6"/>
+      <c r="S684" s="6"/>
+      <c r="T684" s="6"/>
+      <c r="U684" s="6"/>
+      <c r="V684" s="6"/>
+      <c r="W684" s="6"/>
+      <c r="X684" s="6"/>
+      <c r="Y684" s="6"/>
       <c r="Z684" s="6"/>
       <c r="AA684" s="6"/>
       <c r="AB684" s="6"/>
@@ -33590,11 +33545,13 @@
       <c r="AC976" s="6"/>
     </row>
     <row r="977" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A977" s="6"/>
-      <c r="B977" s="6"/>
-      <c r="C977" s="6"/>
-      <c r="D977" s="6"/>
-      <c r="E977" s="6"/>
+      <c r="A977" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B977" s="13"/>
+      <c r="C977" s="13"/>
+      <c r="D977" s="13"/>
+      <c r="E977" s="13"/>
       <c r="F977" s="6"/>
       <c r="G977" s="6"/>
       <c r="H977" s="6"/>
@@ -33621,37 +33578,35 @@
       <c r="AC977" s="6"/>
     </row>
     <row r="978" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A978" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B978" s="13"/>
-      <c r="C978" s="13"/>
-      <c r="D978" s="13"/>
-      <c r="E978" s="13"/>
-      <c r="F978" s="6"/>
-      <c r="G978" s="6"/>
-      <c r="H978" s="6"/>
-      <c r="I978" s="6"/>
-      <c r="J978" s="6"/>
-      <c r="K978" s="6"/>
-      <c r="L978" s="6"/>
-      <c r="M978" s="6"/>
-      <c r="N978" s="6"/>
-      <c r="O978" s="6"/>
-      <c r="P978" s="6"/>
-      <c r="Q978" s="6"/>
-      <c r="R978" s="6"/>
-      <c r="S978" s="6"/>
-      <c r="T978" s="6"/>
-      <c r="U978" s="6"/>
-      <c r="V978" s="6"/>
-      <c r="W978" s="6"/>
-      <c r="X978" s="6"/>
-      <c r="Y978" s="6"/>
-      <c r="Z978" s="6"/>
-      <c r="AA978" s="6"/>
-      <c r="AB978" s="6"/>
-      <c r="AC978" s="6"/>
+      <c r="A978" s="1"/>
+      <c r="B978" s="1"/>
+      <c r="C978" s="1"/>
+      <c r="D978" s="1"/>
+      <c r="E978" s="1"/>
+      <c r="F978" s="1"/>
+      <c r="G978" s="1"/>
+      <c r="H978" s="1"/>
+      <c r="I978" s="1"/>
+      <c r="J978" s="1"/>
+      <c r="K978" s="1"/>
+      <c r="L978" s="1"/>
+      <c r="M978" s="1"/>
+      <c r="N978" s="1"/>
+      <c r="O978" s="1"/>
+      <c r="P978" s="1"/>
+      <c r="Q978" s="1"/>
+      <c r="R978" s="1"/>
+      <c r="S978" s="1"/>
+      <c r="T978" s="1"/>
+      <c r="U978" s="1"/>
+      <c r="V978" s="1"/>
+      <c r="W978" s="1"/>
+      <c r="X978" s="1"/>
+      <c r="Y978" s="1"/>
+      <c r="Z978" s="1"/>
+      <c r="AA978" s="1"/>
+      <c r="AB978" s="1"/>
+      <c r="AC978" s="1"/>
     </row>
     <row r="979" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="1"/>
@@ -33994,37 +33949,6 @@
       <c r="AB989" s="1"/>
       <c r="AC989" s="1"/>
     </row>
-    <row r="990" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A990" s="1"/>
-      <c r="B990" s="1"/>
-      <c r="C990" s="1"/>
-      <c r="D990" s="1"/>
-      <c r="E990" s="1"/>
-      <c r="F990" s="1"/>
-      <c r="G990" s="1"/>
-      <c r="H990" s="1"/>
-      <c r="I990" s="1"/>
-      <c r="J990" s="1"/>
-      <c r="K990" s="1"/>
-      <c r="L990" s="1"/>
-      <c r="M990" s="1"/>
-      <c r="N990" s="1"/>
-      <c r="O990" s="1"/>
-      <c r="P990" s="1"/>
-      <c r="Q990" s="1"/>
-      <c r="R990" s="1"/>
-      <c r="S990" s="1"/>
-      <c r="T990" s="1"/>
-      <c r="U990" s="1"/>
-      <c r="V990" s="1"/>
-      <c r="W990" s="1"/>
-      <c r="X990" s="1"/>
-      <c r="Y990" s="1"/>
-      <c r="Z990" s="1"/>
-      <c r="AA990" s="1"/>
-      <c r="AB990" s="1"/>
-      <c r="AC990" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:S1"/>

--- a/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
+++ b/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC43AF8E-2042-244E-982E-234E839EB4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54314D3B-1BB4-C241-9EE1-BFBFC5DA47CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="345">
   <si>
     <t xml:space="preserve">Creators: Dino Franco Felluga, Cassie Fletcher, Adrian S. Wisnicki </t>
   </si>
@@ -1680,9 +1680,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC989"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38:XFD38"/>
+      <selection pane="bottomLeft" activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4046,8 +4046,8 @@
       <c r="M37" s="5">
         <v>11</v>
       </c>
-      <c r="N37" s="5">
-        <v>129</v>
+      <c r="N37" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="O37" s="5">
         <v>2</v>

--- a/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
+++ b/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54314D3B-1BB4-C241-9EE1-BFBFC5DA47CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591FA389-E611-144B-B427-DEB73A011055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>Anonymous; C. Sandreczki</t>
-  </si>
-  <si>
-    <t>Medditeranean Mission: Smyrna</t>
   </si>
   <si>
     <t>The Church Missionary Intelligencer</t>
@@ -1062,9 +1059,6 @@
     <t>Gleanings from Recent Letters. Preaching on a Tricycle</t>
   </si>
   <si>
-    <t>Anonymous [possibly, "A.S."]; [John Cain]; Anonymous [possibly, "A.S."]</t>
-  </si>
-  <si>
     <t>Henry Boston, African Native Pastor</t>
   </si>
   <si>
@@ -1083,9 +1077,6 @@
     <t>Gleanings from Recent Letters. A Hindu Clergyman and his Heathen Father</t>
   </si>
   <si>
-    <t>Anonymous; Vaughan; Anonymous</t>
-  </si>
-  <si>
     <t>The First Native Clergyman in India</t>
   </si>
   <si>
@@ -1114,6 +1105,15 @@
   </si>
   <si>
     <t>Testamony to a suffering woman; report on Devon Indians</t>
+  </si>
+  <si>
+    <t>Anonymous; [John Cain]; A.S.</t>
+  </si>
+  <si>
+    <t>Mediterranean Mission. Smyrna</t>
+  </si>
+  <si>
+    <t>Anonymous; [Vaughan]; Anonymous</t>
   </si>
 </sst>
 </file>
@@ -1680,9 +1680,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1712,7 +1712,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>25</v>
@@ -2021,7 +2021,7 @@
         <v>45</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>29</v>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>25</v>
@@ -2319,16 +2319,16 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="L11" s="5">
         <v>1</v>
@@ -2337,20 +2337,20 @@
         <v>2</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q11" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="12" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>21</v>
@@ -2380,20 +2380,20 @@
         <v>21</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="L12" s="5">
         <v>1</v>
@@ -2402,20 +2402,20 @@
         <v>19</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q12" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="13" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>21</v>
@@ -2445,20 +2445,20 @@
         <v>21</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="L13" s="5">
         <v>2</v>
@@ -2467,20 +2467,20 @@
         <v>3</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q13" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="R13" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="14" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -2510,20 +2510,20 @@
         <v>21</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="L14" s="5">
         <v>2</v>
@@ -2532,7 +2532,7 @@
         <v>4</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5" t="s">
@@ -2545,7 +2545,7 @@
         <v>29</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="15" spans="1:29" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
@@ -2575,20 +2575,20 @@
         <v>21</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="L15" s="5">
         <v>2</v>
@@ -2597,20 +2597,20 @@
         <v>6</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5" t="s">
         <v>51</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R15" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="16" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>21</v>
@@ -2640,20 +2640,20 @@
         <v>21</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="L16" s="5">
         <v>2</v>
@@ -2662,20 +2662,20 @@
         <v>10</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q16" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="R16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="17" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>21</v>
@@ -2705,20 +2705,20 @@
         <v>21</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="L17" s="5">
         <v>2</v>
@@ -2734,13 +2734,13 @@
         <v>45</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="R17" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="18" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>21</v>
@@ -2770,20 +2770,20 @@
         <v>21</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>136</v>
       </c>
       <c r="L18" s="5">
         <v>2</v>
@@ -2792,20 +2792,20 @@
         <v>9</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R18" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="19" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>21</v>
@@ -2835,20 +2835,20 @@
         <v>21</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>25</v>
       </c>
       <c r="J19" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="L19" s="5">
         <v>2</v>
@@ -2857,20 +2857,20 @@
         <v>10</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R19" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="20" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>21</v>
@@ -2900,20 +2900,20 @@
         <v>21</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>25</v>
       </c>
       <c r="J20" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="L20" s="5">
         <v>2</v>
@@ -2922,20 +2922,20 @@
         <v>11</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="21" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>21</v>
@@ -2965,20 +2965,20 @@
         <v>21</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J21" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="L21" s="5">
         <v>2</v>
@@ -2987,20 +2987,20 @@
         <v>12</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R21" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="22" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>21</v>
@@ -3030,20 +3030,20 @@
         <v>21</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J22" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="L22" s="5">
         <v>3</v>
@@ -3059,13 +3059,13 @@
         <v>24</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="23" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>21</v>
@@ -3095,20 +3095,20 @@
         <v>21</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J23" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>167</v>
       </c>
       <c r="L23" s="5">
         <v>3</v>
@@ -3117,20 +3117,20 @@
         <v>7</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5" t="s">
         <v>51</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R23" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="24" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>21</v>
@@ -3160,20 +3160,20 @@
         <v>21</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J24" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="K24" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="L24" s="5">
         <v>3</v>
@@ -3182,20 +3182,20 @@
         <v>9</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5" t="s">
         <v>51</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R24" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
@@ -3210,7 +3210,7 @@
     </row>
     <row r="25" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>21</v>
@@ -3225,20 +3225,20 @@
         <v>21</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J25" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="L25" s="5">
         <v>3</v>
@@ -3247,20 +3247,20 @@
         <v>11</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q25" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="R25" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="26" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>21</v>
@@ -3290,20 +3290,20 @@
         <v>21</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J26" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>192</v>
       </c>
       <c r="L26" s="5">
         <v>4</v>
@@ -3312,20 +3312,20 @@
         <v>6</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5" t="s">
         <v>45</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R26" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="27" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>21</v>
@@ -3355,20 +3355,20 @@
         <v>21</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J27" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="K27" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>200</v>
       </c>
       <c r="L27" s="5">
         <v>4</v>
@@ -3377,20 +3377,20 @@
         <v>7</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="5" t="s">
         <v>45</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R27" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="28" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>21</v>
@@ -3420,20 +3420,20 @@
         <v>21</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J28" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="K28" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>208</v>
       </c>
       <c r="L28" s="5">
         <v>1</v>
@@ -3449,13 +3449,13 @@
         <v>51</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="29" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>21</v>
@@ -3485,22 +3485,22 @@
         <v>21</v>
       </c>
       <c r="F29" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>213</v>
-      </c>
       <c r="H29" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J29" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="K29" s="9" t="s">
         <v>214</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>215</v>
       </c>
       <c r="L29" s="5">
         <v>1</v>
@@ -3515,16 +3515,16 @@
         <v>2</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R29" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
@@ -3539,7 +3539,7 @@
     </row>
     <row r="30" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>21</v>
@@ -3554,20 +3554,20 @@
         <v>21</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="K30" s="9" t="s">
         <v>214</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>215</v>
       </c>
       <c r="L30" s="5">
         <v>1</v>
@@ -3582,16 +3582,16 @@
         <v>2</v>
       </c>
       <c r="P30" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q30" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="R30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="31" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>21</v>
@@ -3621,22 +3621,22 @@
         <v>21</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="H31" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J31" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="K31" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>228</v>
       </c>
       <c r="L31" s="5">
         <v>1</v>
@@ -3651,16 +3651,16 @@
         <v>44198</v>
       </c>
       <c r="P31" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q31" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="R31" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="32" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>21</v>
@@ -3690,20 +3690,20 @@
         <v>21</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="K32" s="9" t="s">
         <v>234</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>235</v>
       </c>
       <c r="L32" s="5">
         <v>1</v>
@@ -3721,13 +3721,13 @@
         <v>45</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R32" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="33" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>21</v>
@@ -3757,20 +3757,20 @@
         <v>21</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J33" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="K33" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>241</v>
       </c>
       <c r="L33" s="5">
         <v>1</v>
@@ -3788,13 +3788,13 @@
         <v>24</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R33" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="34" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>21</v>
@@ -3824,20 +3824,20 @@
         <v>21</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K34" s="9" t="s">
         <v>246</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>247</v>
       </c>
       <c r="L34" s="5">
         <v>1</v>
@@ -3852,16 +3852,16 @@
         <v>2</v>
       </c>
       <c r="P34" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q34" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="Q34" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="R34" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="35" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>21</v>
@@ -3891,20 +3891,20 @@
         <v>21</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J35" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="K35" s="9" t="s">
         <v>253</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>254</v>
       </c>
       <c r="L35" s="5">
         <v>1</v>
@@ -3913,22 +3913,22 @@
         <v>9</v>
       </c>
       <c r="N35" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="O35" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="O35" s="5" t="s">
+      <c r="P35" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="P35" s="5" t="s">
+      <c r="Q35" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="R35" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="36" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>21</v>
@@ -3958,20 +3958,20 @@
         <v>21</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J36" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="K36" s="9" t="s">
         <v>262</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="L36" s="5">
         <v>1</v>
@@ -3989,13 +3989,13 @@
         <v>45</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R36" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="37" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>21</v>
@@ -4025,20 +4025,20 @@
         <v>21</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J37" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" s="9" t="s">
         <v>262</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="L37" s="5">
         <v>1</v>
@@ -4047,22 +4047,22 @@
         <v>11</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O37" s="5">
         <v>2</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="R37" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="38" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>21</v>
@@ -4096,16 +4096,16 @@
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J38" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="K38" s="9" t="s">
         <v>262</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="L38" s="5">
         <v>1</v>
@@ -4123,13 +4123,13 @@
         <v>45</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R38" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="39" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>21</v>
@@ -4159,20 +4159,20 @@
         <v>21</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J39" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="K39" s="9" t="s">
         <v>274</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>275</v>
       </c>
       <c r="L39" s="5">
         <v>1</v>
@@ -4190,13 +4190,13 @@
         <v>45</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R39" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="40" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>21</v>
@@ -4226,20 +4226,20 @@
         <v>21</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J40" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="K40" s="9" t="s">
         <v>274</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>275</v>
       </c>
       <c r="L40" s="5">
         <v>1</v>
@@ -4248,22 +4248,22 @@
         <v>12</v>
       </c>
       <c r="N40" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="O40" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>282</v>
       </c>
       <c r="P40" s="5" t="s">
         <v>45</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R40" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="41" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>21</v>
@@ -4293,20 +4293,20 @@
         <v>21</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J41" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="K41" s="9" t="s">
         <v>286</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>287</v>
       </c>
       <c r="L41" s="5">
         <v>2</v>
@@ -4324,13 +4324,13 @@
         <v>45</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R41" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
@@ -4345,7 +4345,7 @@
     </row>
     <row r="42" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>21</v>
@@ -4360,20 +4360,20 @@
         <v>21</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J42" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="K42" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>293</v>
       </c>
       <c r="L42" s="5">
         <v>2</v>
@@ -4391,13 +4391,13 @@
         <v>51</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R42" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="43" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>21</v>
@@ -4427,20 +4427,20 @@
         <v>21</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J43" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="K43" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>293</v>
       </c>
       <c r="L43" s="5">
         <v>2</v>
@@ -4458,13 +4458,13 @@
         <v>51</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R43" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="44" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>21</v>
@@ -4494,20 +4494,20 @@
         <v>21</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J44" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="K44" s="9" t="s">
         <v>302</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>303</v>
       </c>
       <c r="L44" s="5">
         <v>2</v>
@@ -4525,13 +4525,13 @@
         <v>51</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="R44" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S44" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="45" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B45" s="18" t="s">
         <v>21</v>
@@ -4561,20 +4561,20 @@
         <v>21</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="18" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I45" s="18" t="s">
         <v>25</v>
       </c>
       <c r="J45" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="K45" s="20" t="s">
         <v>302</v>
-      </c>
-      <c r="K45" s="20" t="s">
-        <v>303</v>
       </c>
       <c r="L45" s="18">
         <v>2</v>
@@ -4583,22 +4583,22 @@
         <v>15</v>
       </c>
       <c r="N45" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O45" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P45" s="18" t="s">
         <v>45</v>
       </c>
       <c r="Q45" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R45" s="18" t="s">
         <v>29</v>
       </c>
       <c r="S45" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T45" s="18"/>
       <c r="U45" s="18"/>
@@ -4613,7 +4613,7 @@
     </row>
     <row r="46" spans="1:29" s="28" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B46" s="26" t="s">
         <v>21</v>
@@ -4628,20 +4628,20 @@
         <v>21</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G46" s="26"/>
       <c r="H46" s="26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I46" s="26" t="s">
         <v>25</v>
       </c>
       <c r="J46" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="K46" s="26" t="s">
         <v>310</v>
-      </c>
-      <c r="K46" s="26" t="s">
-        <v>311</v>
       </c>
       <c r="L46" s="26">
         <v>2</v>
@@ -4650,20 +4650,20 @@
         <v>16</v>
       </c>
       <c r="N46" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O46" s="27"/>
       <c r="P46" s="26" t="s">
         <v>45</v>
       </c>
       <c r="Q46" s="26" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="R46" s="26" t="s">
         <v>29</v>
       </c>
       <c r="S46" s="26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T46" s="27"/>
       <c r="U46" s="27"/>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="47" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>21</v>
@@ -4693,20 +4693,20 @@
         <v>21</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G47" s="22"/>
       <c r="H47" s="29" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I47" s="22" t="s">
         <v>25</v>
       </c>
       <c r="J47" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="K47" s="24" t="s">
         <v>310</v>
-      </c>
-      <c r="K47" s="24" t="s">
-        <v>311</v>
       </c>
       <c r="L47" s="22">
         <v>2</v>
@@ -4724,13 +4724,13 @@
         <v>45</v>
       </c>
       <c r="Q47" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="R47" s="22" t="s">
         <v>29</v>
       </c>
       <c r="S47" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T47" s="22"/>
       <c r="U47" s="22"/>
@@ -33546,7 +33546,7 @@
     </row>
     <row r="977" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B977" s="13"/>
       <c r="C977" s="13"/>

--- a/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
+++ b/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591FA389-E611-144B-B427-DEB73A011055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253A3E21-90B2-FF41-AD52-5AE8352C7DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1083,9 +1083,6 @@
     <t>[Hymn] Hymn written by Abdul Messeeh</t>
   </si>
   <si>
-    <t xml:space="preserve"> [Amazonian Battle Poem] Amazon War Song</t>
-  </si>
-  <si>
     <t>[Letter to King George II] A letter from the King of Dahomey to King George II</t>
   </si>
   <si>
@@ -1114,6 +1111,9 @@
   </si>
   <si>
     <t>Anonymous; [Vaughan]; Anonymous</t>
+  </si>
+  <si>
+    <t>[Amazonian Battle Poem] Amazon War Song</t>
   </si>
 </sst>
 </file>
@@ -1681,8 +1681,8 @@
   <dimension ref="A1:AC989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1702,7 +1702,7 @@
     <col min="13" max="13" width="4.5703125" customWidth="1"/>
     <col min="14" max="14" width="5.85546875" customWidth="1"/>
     <col min="15" max="15" width="6.140625" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="41.5703125" customWidth="1"/>
     <col min="18" max="18" width="27.5703125" customWidth="1"/>
     <col min="19" max="19" width="90.28515625" customWidth="1"/>
@@ -2021,7 +2021,7 @@
         <v>45</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>29</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>80</v>
@@ -2734,7 +2734,7 @@
         <v>45</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="R17" s="5" t="s">
         <v>29</v>
@@ -3491,7 +3491,7 @@
         <v>212</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>25</v>
@@ -3891,7 +3891,7 @@
         <v>21</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
@@ -4056,7 +4056,7 @@
         <v>219</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R37" s="5" t="s">
         <v>29</v>
@@ -4427,7 +4427,7 @@
         <v>21</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I45" s="18" t="s">
         <v>25</v>
@@ -4628,7 +4628,7 @@
         <v>21</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G46" s="26"/>
       <c r="H46" s="26" t="s">
@@ -4657,7 +4657,7 @@
         <v>45</v>
       </c>
       <c r="Q46" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R46" s="26" t="s">
         <v>29</v>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="G47" s="22"/>
       <c r="H47" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I47" s="22" t="s">
         <v>25</v>

--- a/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
+++ b/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253A3E21-90B2-FF41-AD52-5AE8352C7DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737A200C-395F-BA43-A527-403344269CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -756,9 +756,6 @@
     <t>Sargent</t>
   </si>
   <si>
-    <t>The False and the True Vasanta Rayar: A Narrative of Religious Excitement in South India Ten Years Ago</t>
-  </si>
-  <si>
     <t>May 1874</t>
   </si>
   <si>
@@ -1114,6 +1111,9 @@
   </si>
   <si>
     <t>[Amazonian Battle Poem] Amazon War Song</t>
+  </si>
+  <si>
+    <t>The False and the True Vasanta Rayar</t>
   </si>
 </sst>
 </file>
@@ -1681,8 +1681,8 @@
   <dimension ref="A1:AC989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
+      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1712,7 +1712,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>25</v>
@@ -2021,7 +2021,7 @@
         <v>45</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>29</v>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>25</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>80</v>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>25</v>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>25</v>
@@ -2734,7 +2734,7 @@
         <v>45</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R17" s="5" t="s">
         <v>29</v>
@@ -3491,7 +3491,7 @@
         <v>212</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>25</v>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>25</v>
@@ -3604,7 +3604,7 @@
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
     </row>
-    <row r="31" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>222</v>
       </c>
@@ -3627,16 +3627,16 @@
         <v>224</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>225</v>
+        <v>344</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J31" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" s="9" t="s">
         <v>226</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>227</v>
       </c>
       <c r="L31" s="5">
         <v>1</v>
@@ -3651,16 +3651,16 @@
         <v>44198</v>
       </c>
       <c r="P31" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q31" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="R31" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="32" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>21</v>
@@ -3690,20 +3690,20 @@
         <v>21</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="K32" s="9" t="s">
         <v>233</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>234</v>
       </c>
       <c r="L32" s="5">
         <v>1</v>
@@ -3721,13 +3721,13 @@
         <v>45</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R32" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="33" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>21</v>
@@ -3757,20 +3757,20 @@
         <v>21</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J33" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="K33" s="9" t="s">
         <v>239</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>240</v>
       </c>
       <c r="L33" s="5">
         <v>1</v>
@@ -3788,13 +3788,13 @@
         <v>24</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R33" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="34" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>21</v>
@@ -3824,20 +3824,20 @@
         <v>21</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="K34" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>246</v>
       </c>
       <c r="L34" s="5">
         <v>1</v>
@@ -3852,16 +3852,16 @@
         <v>2</v>
       </c>
       <c r="P34" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q34" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="Q34" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="R34" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="35" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>21</v>
@@ -3891,20 +3891,20 @@
         <v>21</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J35" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K35" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>253</v>
       </c>
       <c r="L35" s="5">
         <v>1</v>
@@ -3913,22 +3913,22 @@
         <v>9</v>
       </c>
       <c r="N35" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="O35" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="O35" s="5" t="s">
+      <c r="P35" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="P35" s="5" t="s">
+      <c r="Q35" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="R35" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="36" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>21</v>
@@ -3958,20 +3958,20 @@
         <v>21</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J36" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="K36" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>262</v>
       </c>
       <c r="L36" s="5">
         <v>1</v>
@@ -3989,13 +3989,13 @@
         <v>45</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R36" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="37" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>21</v>
@@ -4029,16 +4029,16 @@
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J37" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="K37" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>262</v>
       </c>
       <c r="L37" s="5">
         <v>1</v>
@@ -4056,13 +4056,13 @@
         <v>219</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R37" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="38" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>21</v>
@@ -4096,16 +4096,16 @@
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J38" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="K38" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>262</v>
       </c>
       <c r="L38" s="5">
         <v>1</v>
@@ -4123,13 +4123,13 @@
         <v>45</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R38" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="39" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>21</v>
@@ -4159,20 +4159,20 @@
         <v>21</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J39" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="K39" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>274</v>
       </c>
       <c r="L39" s="5">
         <v>1</v>
@@ -4190,13 +4190,13 @@
         <v>45</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R39" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="40" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>21</v>
@@ -4226,20 +4226,20 @@
         <v>21</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J40" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="K40" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>274</v>
       </c>
       <c r="L40" s="5">
         <v>1</v>
@@ -4248,22 +4248,22 @@
         <v>12</v>
       </c>
       <c r="N40" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="O40" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>281</v>
       </c>
       <c r="P40" s="5" t="s">
         <v>45</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R40" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="41" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>21</v>
@@ -4293,20 +4293,20 @@
         <v>21</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J41" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="K41" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>286</v>
       </c>
       <c r="L41" s="5">
         <v>2</v>
@@ -4324,13 +4324,13 @@
         <v>45</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R41" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
@@ -4345,7 +4345,7 @@
     </row>
     <row r="42" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>21</v>
@@ -4360,20 +4360,20 @@
         <v>21</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J42" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="K42" s="9" t="s">
         <v>291</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>292</v>
       </c>
       <c r="L42" s="5">
         <v>2</v>
@@ -4391,13 +4391,13 @@
         <v>51</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R42" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="43" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>21</v>
@@ -4427,20 +4427,20 @@
         <v>21</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J43" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="K43" s="9" t="s">
         <v>291</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>292</v>
       </c>
       <c r="L43" s="5">
         <v>2</v>
@@ -4458,13 +4458,13 @@
         <v>51</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R43" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="44" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>21</v>
@@ -4494,20 +4494,20 @@
         <v>21</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J44" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="K44" s="9" t="s">
         <v>301</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>302</v>
       </c>
       <c r="L44" s="5">
         <v>2</v>
@@ -4525,13 +4525,13 @@
         <v>51</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R44" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S44" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="45" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B45" s="18" t="s">
         <v>21</v>
@@ -4561,20 +4561,20 @@
         <v>21</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I45" s="18" t="s">
         <v>25</v>
       </c>
       <c r="J45" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="K45" s="20" t="s">
         <v>301</v>
-      </c>
-      <c r="K45" s="20" t="s">
-        <v>302</v>
       </c>
       <c r="L45" s="18">
         <v>2</v>
@@ -4583,22 +4583,22 @@
         <v>15</v>
       </c>
       <c r="N45" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O45" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P45" s="18" t="s">
         <v>45</v>
       </c>
       <c r="Q45" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R45" s="18" t="s">
         <v>29</v>
       </c>
       <c r="S45" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T45" s="18"/>
       <c r="U45" s="18"/>
@@ -4613,7 +4613,7 @@
     </row>
     <row r="46" spans="1:29" s="28" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B46" s="26" t="s">
         <v>21</v>
@@ -4628,20 +4628,20 @@
         <v>21</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G46" s="26"/>
       <c r="H46" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I46" s="26" t="s">
         <v>25</v>
       </c>
       <c r="J46" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="K46" s="26" t="s">
         <v>309</v>
-      </c>
-      <c r="K46" s="26" t="s">
-        <v>310</v>
       </c>
       <c r="L46" s="26">
         <v>2</v>
@@ -4650,20 +4650,20 @@
         <v>16</v>
       </c>
       <c r="N46" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O46" s="27"/>
       <c r="P46" s="26" t="s">
         <v>45</v>
       </c>
       <c r="Q46" s="26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R46" s="26" t="s">
         <v>29</v>
       </c>
       <c r="S46" s="26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T46" s="27"/>
       <c r="U46" s="27"/>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="47" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>21</v>
@@ -4693,20 +4693,20 @@
         <v>21</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G47" s="22"/>
       <c r="H47" s="29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I47" s="22" t="s">
         <v>25</v>
       </c>
       <c r="J47" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="K47" s="24" t="s">
         <v>309</v>
-      </c>
-      <c r="K47" s="24" t="s">
-        <v>310</v>
       </c>
       <c r="L47" s="22">
         <v>2</v>
@@ -4724,13 +4724,13 @@
         <v>45</v>
       </c>
       <c r="Q47" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="R47" s="22" t="s">
         <v>29</v>
       </c>
       <c r="S47" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="T47" s="22"/>
       <c r="U47" s="22"/>

--- a/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
+++ b/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737A200C-395F-BA43-A527-403344269CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDC285C-DCE5-A24B-9D37-6BA181E8DCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="335">
   <si>
     <t xml:space="preserve">Creators: Dino Franco Felluga, Cassie Fletcher, Adrian S. Wisnicki </t>
   </si>
@@ -265,33 +265,6 @@
   </si>
   <si>
     <t>https://www.churchmissionarysociety.amdigital.co.uk/Documents/Images/CMS_CRL_Quarterly_Subscribers_1856-1865_01/15#Articles</t>
-  </si>
-  <si>
-    <t>liv_026010</t>
-  </si>
-  <si>
-    <t>Anonymous; C. Sandreczki</t>
-  </si>
-  <si>
-    <t>The Church Missionary Intelligencer</t>
-  </si>
-  <si>
-    <t>June 1849</t>
-  </si>
-  <si>
-    <t>1849-06</t>
-  </si>
-  <si>
-    <t>29-30</t>
-  </si>
-  <si>
-    <t>Turkish Empire</t>
-  </si>
-  <si>
-    <t>Personal Journal Entries</t>
-  </si>
-  <si>
-    <t>https://www.churchmissionarysociety.amdigital.co.uk/Documents/Images/CMS_OX_Intelligencer_1849-1850_02/4#Articles</t>
   </si>
   <si>
     <t>liv_026011</t>
@@ -1104,9 +1077,6 @@
     <t>Anonymous; [John Cain]; A.S.</t>
   </si>
   <si>
-    <t>Mediterranean Mission. Smyrna</t>
-  </si>
-  <si>
     <t>Anonymous; [Vaughan]; Anonymous</t>
   </si>
   <si>
@@ -1678,11 +1648,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC989"/>
+  <dimension ref="A1:AC988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1712,7 +1682,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -1996,7 +1966,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>25</v>
@@ -2021,7 +1991,7 @@
         <v>45</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>29</v>
@@ -2191,7 +2161,7 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>25</v>
@@ -2298,7 +2268,7 @@
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>78</v>
       </c>
@@ -2309,7 +2279,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>21</v>
@@ -2319,10 +2289,10 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>81</v>
@@ -2334,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="5">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>83</v>
@@ -2384,38 +2354,38 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>89</v>
+        <v>311</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="L12" s="5">
+        <v>2</v>
+      </c>
+      <c r="M12" s="5">
+        <v>3</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="L12" s="5">
-        <v>1</v>
-      </c>
-      <c r="M12" s="5">
-        <v>19</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q12" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -2428,9 +2398,9 @@
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>21</v>
@@ -2439,17 +2409,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>320</v>
+        <v>97</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>25</v>
@@ -2464,23 +2434,23 @@
         <v>2</v>
       </c>
       <c r="M13" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>100</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="R13" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -2493,14 +2463,14 @@
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
     </row>
-    <row r="14" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -2510,42 +2480,42 @@
         <v>21</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L14" s="5">
         <v>2</v>
       </c>
       <c r="M14" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5" t="s">
         <v>51</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="R14" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -2558,9 +2528,9 @@
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="102" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
@@ -2575,33 +2545,33 @@
         <v>21</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="L15" s="5">
         <v>2</v>
       </c>
       <c r="M15" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="Q15" s="5" t="s">
         <v>117</v>
@@ -2623,7 +2593,7 @@
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
     </row>
-    <row r="16" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>119</v>
       </c>
@@ -2644,16 +2614,16 @@
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>121</v>
+        <v>312</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L16" s="5">
         <v>2</v>
@@ -2661,21 +2631,21 @@
       <c r="M16" s="5">
         <v>10</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>124</v>
+      <c r="N16" s="5">
+        <v>114</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>126</v>
+        <v>324</v>
       </c>
       <c r="R16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
@@ -2688,9 +2658,9 @@
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>21</v>
@@ -2699,48 +2669,48 @@
         <v>21</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>321</v>
+        <v>124</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L17" s="5">
         <v>2</v>
       </c>
       <c r="M17" s="5">
-        <v>10</v>
-      </c>
-      <c r="N17" s="5">
-        <v>114</v>
+        <v>9</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>333</v>
+        <v>128</v>
       </c>
       <c r="R17" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -2755,7 +2725,7 @@
     </row>
     <row r="18" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>21</v>
@@ -2764,48 +2734,48 @@
         <v>21</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>132</v>
+      <c r="F18" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I18" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" s="15" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="L18" s="5">
         <v>2</v>
       </c>
       <c r="M18" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="5" t="s">
-        <v>137</v>
+      <c r="Q18" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="R18" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
@@ -2820,7 +2790,7 @@
     </row>
     <row r="19" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>21</v>
@@ -2835,42 +2805,42 @@
         <v>21</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>25</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="L19" s="5">
         <v>2</v>
       </c>
       <c r="M19" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="R19" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
@@ -2885,7 +2855,7 @@
     </row>
     <row r="20" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>21</v>
@@ -2900,42 +2870,42 @@
         <v>21</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I20" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L20" s="5">
         <v>2</v>
       </c>
       <c r="M20" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Q20" s="15" t="s">
-        <v>147</v>
+      <c r="Q20" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
@@ -2950,7 +2920,7 @@
     </row>
     <row r="21" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>21</v>
@@ -2964,43 +2934,43 @@
       <c r="E21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>132</v>
+      <c r="F21" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J21" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="K21" s="9" t="s">
-        <v>151</v>
-      </c>
       <c r="L21" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M21" s="5">
-        <v>12</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>152</v>
+        <v>6</v>
+      </c>
+      <c r="N21" s="5">
+        <v>66</v>
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R21" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
@@ -3013,9 +2983,9 @@
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
     </row>
-    <row r="22" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>21</v>
@@ -3030,42 +3000,42 @@
         <v>21</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L22" s="5">
         <v>3</v>
       </c>
       <c r="M22" s="5">
-        <v>6</v>
-      </c>
-      <c r="N22" s="5">
-        <v>66</v>
+        <v>7</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -3080,7 +3050,7 @@
     </row>
     <row r="23" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>21</v>
@@ -3095,42 +3065,42 @@
         <v>21</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J23" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="L23" s="5">
         <v>3</v>
       </c>
       <c r="M23" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5" t="s">
         <v>51</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R23" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -3143,9 +3113,9 @@
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
     </row>
-    <row r="24" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>21</v>
@@ -3160,33 +3130,33 @@
         <v>21</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J24" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="L24" s="5">
         <v>3</v>
       </c>
       <c r="M24" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5" t="s">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="5" t="s">
         <v>176</v>
@@ -3208,7 +3178,7 @@
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>178</v>
       </c>
@@ -3241,26 +3211,26 @@
         <v>182</v>
       </c>
       <c r="L25" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>183</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q25" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="R25" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
@@ -3273,9 +3243,9 @@
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
     </row>
-    <row r="26" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>21</v>
@@ -3290,42 +3260,42 @@
         <v>21</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J26" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="L26" s="5">
         <v>4</v>
       </c>
       <c r="M26" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5" t="s">
         <v>45</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R26" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
@@ -3340,7 +3310,7 @@
     </row>
     <row r="27" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>21</v>
@@ -3349,48 +3319,48 @@
         <v>21</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J27" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="K27" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="K27" s="9" t="s">
-        <v>199</v>
-      </c>
       <c r="L27" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M27" s="5">
-        <v>7</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>200</v>
+        <v>3</v>
+      </c>
+      <c r="N27" s="5">
+        <v>26</v>
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="R27" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
@@ -3405,7 +3375,7 @@
     </row>
     <row r="28" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>21</v>
@@ -3414,48 +3384,52 @@
         <v>21</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G28" s="5"/>
+        <v>202</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="H28" s="5" t="s">
-        <v>205</v>
+        <v>325</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L28" s="5">
         <v>1</v>
       </c>
       <c r="M28" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N28" s="5">
-        <v>26</v>
-      </c>
-      <c r="O28" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="O28" s="5">
+        <v>2</v>
+      </c>
       <c r="P28" s="5" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
@@ -3468,9 +3442,9 @@
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>21</v>
@@ -3485,22 +3459,20 @@
         <v>21</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>212</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="L29" s="5">
         <v>1</v>
@@ -3509,22 +3481,22 @@
         <v>4</v>
       </c>
       <c r="N29" s="5">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O29" s="5">
         <v>2</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R29" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
@@ -3537,9 +3509,9 @@
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
     </row>
-    <row r="30" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>21</v>
@@ -3554,44 +3526,46 @@
         <v>21</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G30" s="5"/>
+        <v>214</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>215</v>
+      </c>
       <c r="H30" s="5" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L30" s="5">
         <v>1</v>
       </c>
       <c r="M30" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" s="5">
-        <v>43</v>
-      </c>
-      <c r="O30" s="5">
-        <v>2</v>
+        <v>53</v>
+      </c>
+      <c r="O30" s="10">
+        <v>44198</v>
       </c>
       <c r="P30" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q30" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="R30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
@@ -3606,7 +3580,7 @@
     </row>
     <row r="31" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>21</v>
@@ -3621,46 +3595,44 @@
         <v>21</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>224</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L31" s="5">
         <v>1</v>
       </c>
       <c r="M31" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N31" s="5">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="O31" s="10">
         <v>44198</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="R31" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
@@ -3675,7 +3647,7 @@
     </row>
     <row r="32" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>21</v>
@@ -3690,44 +3662,44 @@
         <v>21</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L32" s="5">
         <v>1</v>
       </c>
       <c r="M32" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N32" s="5">
-        <v>77</v>
-      </c>
-      <c r="O32" s="10">
-        <v>44198</v>
+        <v>88</v>
+      </c>
+      <c r="O32" s="5">
+        <v>2</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="R32" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
@@ -3742,7 +3714,7 @@
     </row>
     <row r="33" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>21</v>
@@ -3757,44 +3729,44 @@
         <v>21</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L33" s="5">
         <v>1</v>
       </c>
       <c r="M33" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N33" s="5">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="O33" s="5">
         <v>2</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="R33" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
@@ -3807,9 +3779,9 @@
       <c r="AB33" s="6"/>
       <c r="AC33" s="6"/>
     </row>
-    <row r="34" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>21</v>
@@ -3824,32 +3796,32 @@
         <v>21</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L34" s="5">
         <v>1</v>
       </c>
       <c r="M34" s="5">
-        <v>6</v>
-      </c>
-      <c r="N34" s="5">
-        <v>65</v>
-      </c>
-      <c r="O34" s="5">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="P34" s="5" t="s">
         <v>246</v>
@@ -3891,11 +3863,11 @@
         <v>21</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>25</v>
@@ -3910,25 +3882,25 @@
         <v>1</v>
       </c>
       <c r="M35" s="5">
-        <v>9</v>
-      </c>
-      <c r="N35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N35" s="5">
+        <v>124</v>
+      </c>
+      <c r="O35" s="10">
+        <v>44198</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q35" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="P35" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="R35" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
@@ -3943,7 +3915,7 @@
     </row>
     <row r="36" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>21</v>
@@ -3958,20 +3930,20 @@
         <v>21</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="L36" s="5">
         <v>1</v>
@@ -3979,23 +3951,23 @@
       <c r="M36" s="5">
         <v>11</v>
       </c>
-      <c r="N36" s="5">
-        <v>124</v>
-      </c>
-      <c r="O36" s="10">
-        <v>44198</v>
+      <c r="N36" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="O36" s="5">
+        <v>2</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>262</v>
+        <v>330</v>
       </c>
       <c r="R36" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
@@ -4008,9 +3980,9 @@
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
     </row>
-    <row r="37" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>21</v>
@@ -4025,20 +3997,20 @@
         <v>21</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="L37" s="5">
         <v>1</v>
@@ -4046,23 +4018,23 @@
       <c r="M37" s="5">
         <v>11</v>
       </c>
-      <c r="N37" s="5" t="s">
-        <v>183</v>
+      <c r="N37" s="5">
+        <v>131</v>
       </c>
       <c r="O37" s="5">
         <v>2</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>339</v>
+        <v>258</v>
       </c>
       <c r="R37" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
@@ -4075,9 +4047,9 @@
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
     </row>
-    <row r="38" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>21</v>
@@ -4092,29 +4064,29 @@
         <v>21</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5" t="s">
-        <v>327</v>
+        <v>262</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L38" s="5">
         <v>1</v>
       </c>
       <c r="M38" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N38" s="5">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="O38" s="5">
         <v>2</v>
@@ -4123,13 +4095,13 @@
         <v>45</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="R38" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
@@ -4144,7 +4116,7 @@
     </row>
     <row r="39" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>21</v>
@@ -4159,20 +4131,20 @@
         <v>21</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="L39" s="5">
         <v>1</v>
@@ -4180,23 +4152,23 @@
       <c r="M39" s="5">
         <v>12</v>
       </c>
-      <c r="N39" s="5">
-        <v>136</v>
-      </c>
-      <c r="O39" s="5">
-        <v>2</v>
+      <c r="N39" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="P39" s="5" t="s">
         <v>45</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="R39" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
@@ -4211,7 +4183,7 @@
     </row>
     <row r="40" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>21</v>
@@ -4226,44 +4198,44 @@
         <v>21</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L40" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40" s="5">
-        <v>12</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>280</v>
+        <v>13</v>
+      </c>
+      <c r="N40" s="5">
+        <v>9</v>
+      </c>
+      <c r="O40" s="5">
+        <v>2</v>
       </c>
       <c r="P40" s="5" t="s">
         <v>45</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="R40" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
@@ -4276,9 +4248,9 @@
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
     </row>
-    <row r="41" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>21</v>
@@ -4293,44 +4265,44 @@
         <v>21</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L41" s="5">
         <v>2</v>
       </c>
       <c r="M41" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N41" s="5">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="O41" s="5">
         <v>2</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="R41" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
@@ -4345,7 +4317,7 @@
     </row>
     <row r="42" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>21</v>
@@ -4360,20 +4332,20 @@
         <v>21</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="L42" s="5">
         <v>2</v>
@@ -4382,7 +4354,7 @@
         <v>14</v>
       </c>
       <c r="N42" s="5">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="O42" s="5">
         <v>2</v>
@@ -4391,13 +4363,13 @@
         <v>51</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="R42" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
@@ -4412,7 +4384,7 @@
     </row>
     <row r="43" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>21</v>
@@ -4427,29 +4399,29 @@
         <v>21</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L43" s="5">
         <v>2</v>
       </c>
       <c r="M43" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N43" s="5">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="O43" s="5">
         <v>2</v>
@@ -4458,13 +4430,13 @@
         <v>51</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="R43" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
@@ -4478,272 +4450,238 @@
       <c r="AC43" s="6"/>
     </row>
     <row r="44" spans="1:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="K44" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="L44" s="18">
+        <v>2</v>
+      </c>
+      <c r="M44" s="18">
+        <v>15</v>
+      </c>
+      <c r="N44" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="O44" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="P44" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q44" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="R44" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="S44" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="21"/>
+    </row>
+    <row r="45" spans="1:29" s="28" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="I45" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K45" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="L45" s="26">
+        <v>2</v>
+      </c>
+      <c r="M45" s="26">
+        <v>16</v>
+      </c>
+      <c r="N45" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="O45" s="27"/>
+      <c r="P45" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q45" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="R45" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="S45" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="27"/>
+      <c r="AC45" s="27"/>
+    </row>
+    <row r="46" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C46" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D46" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E46" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F46" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="G46" s="22"/>
+      <c r="H46" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J44" s="8" t="s">
+      <c r="K46" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="K44" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="L44" s="5">
+      <c r="L46" s="22">
         <v>2</v>
       </c>
-      <c r="M44" s="5">
-        <v>15</v>
-      </c>
-      <c r="N44" s="5">
-        <v>26</v>
-      </c>
-      <c r="O44" s="5">
+      <c r="M46" s="22">
+        <v>16</v>
+      </c>
+      <c r="N46" s="22">
+        <v>41</v>
+      </c>
+      <c r="O46" s="22">
         <v>2</v>
       </c>
-      <c r="P44" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q44" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="R44" s="5" t="s">
+      <c r="P46" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q46" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="R46" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="S44" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6"/>
-      <c r="AB44" s="6"/>
-      <c r="AC44" s="6"/>
-    </row>
-    <row r="45" spans="1:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="I45" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J45" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="K45" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="L45" s="18">
-        <v>2</v>
-      </c>
-      <c r="M45" s="18">
-        <v>15</v>
-      </c>
-      <c r="N45" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="O45" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="P45" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q45" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="R45" s="18" t="s">
+      <c r="S46" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="22"/>
+      <c r="X46" s="22"/>
+      <c r="Y46" s="22"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="25"/>
+    </row>
+    <row r="47" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S45" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="18"/>
-      <c r="X45" s="18"/>
-      <c r="Y45" s="18"/>
-      <c r="Z45" s="21"/>
-      <c r="AA45" s="21"/>
-      <c r="AB45" s="21"/>
-      <c r="AC45" s="21"/>
-    </row>
-    <row r="46" spans="1:29" s="28" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A46" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="I46" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="J46" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="K46" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="L46" s="26">
-        <v>2</v>
-      </c>
-      <c r="M46" s="26">
-        <v>16</v>
-      </c>
-      <c r="N46" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="O46" s="27"/>
-      <c r="P46" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q46" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="R46" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="S46" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="27"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="27"/>
-      <c r="Z46" s="27"/>
-      <c r="AA46" s="27"/>
-      <c r="AB46" s="27"/>
-      <c r="AC46" s="27"/>
-    </row>
-    <row r="47" spans="1:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="29" t="s">
-        <v>338</v>
-      </c>
-      <c r="I47" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J47" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="K47" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="L47" s="22">
-        <v>2</v>
-      </c>
-      <c r="M47" s="22">
-        <v>16</v>
-      </c>
-      <c r="N47" s="22">
-        <v>41</v>
-      </c>
-      <c r="O47" s="22">
-        <v>2</v>
-      </c>
-      <c r="P47" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q47" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="R47" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="S47" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22"/>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="25"/>
-      <c r="AA47" s="25"/>
-      <c r="AB47" s="25"/>
-      <c r="AC47" s="25"/>
-    </row>
-    <row r="48" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+    </row>
+    <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -4761,9 +4699,7 @@
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
-      <c r="R48" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="R48" s="5"/>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
@@ -24431,31 +24367,31 @@
       <c r="AC682" s="6"/>
     </row>
     <row r="683" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A683" s="5"/>
-      <c r="B683" s="5"/>
-      <c r="C683" s="5"/>
-      <c r="D683" s="5"/>
-      <c r="E683" s="5"/>
-      <c r="F683" s="5"/>
-      <c r="G683" s="5"/>
-      <c r="H683" s="5"/>
-      <c r="I683" s="5"/>
-      <c r="J683" s="5"/>
-      <c r="K683" s="9"/>
-      <c r="L683" s="5"/>
-      <c r="M683" s="5"/>
-      <c r="N683" s="5"/>
-      <c r="O683" s="5"/>
-      <c r="P683" s="5"/>
-      <c r="Q683" s="5"/>
-      <c r="R683" s="5"/>
-      <c r="S683" s="5"/>
-      <c r="T683" s="5"/>
-      <c r="U683" s="5"/>
-      <c r="V683" s="5"/>
-      <c r="W683" s="5"/>
-      <c r="X683" s="5"/>
-      <c r="Y683" s="5"/>
+      <c r="A683" s="6"/>
+      <c r="B683" s="6"/>
+      <c r="C683" s="6"/>
+      <c r="D683" s="6"/>
+      <c r="E683" s="6"/>
+      <c r="F683" s="6"/>
+      <c r="G683" s="6"/>
+      <c r="H683" s="6"/>
+      <c r="I683" s="6"/>
+      <c r="J683" s="6"/>
+      <c r="K683" s="6"/>
+      <c r="L683" s="6"/>
+      <c r="M683" s="6"/>
+      <c r="N683" s="6"/>
+      <c r="O683" s="6"/>
+      <c r="P683" s="6"/>
+      <c r="Q683" s="6"/>
+      <c r="R683" s="6"/>
+      <c r="S683" s="6"/>
+      <c r="T683" s="6"/>
+      <c r="U683" s="6"/>
+      <c r="V683" s="6"/>
+      <c r="W683" s="6"/>
+      <c r="X683" s="6"/>
+      <c r="Y683" s="6"/>
       <c r="Z683" s="6"/>
       <c r="AA683" s="6"/>
       <c r="AB683" s="6"/>
@@ -33514,11 +33450,13 @@
       <c r="AC975" s="6"/>
     </row>
     <row r="976" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A976" s="6"/>
-      <c r="B976" s="6"/>
-      <c r="C976" s="6"/>
-      <c r="D976" s="6"/>
-      <c r="E976" s="6"/>
+      <c r="A976" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B976" s="13"/>
+      <c r="C976" s="13"/>
+      <c r="D976" s="13"/>
+      <c r="E976" s="13"/>
       <c r="F976" s="6"/>
       <c r="G976" s="6"/>
       <c r="H976" s="6"/>
@@ -33545,37 +33483,35 @@
       <c r="AC976" s="6"/>
     </row>
     <row r="977" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A977" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B977" s="13"/>
-      <c r="C977" s="13"/>
-      <c r="D977" s="13"/>
-      <c r="E977" s="13"/>
-      <c r="F977" s="6"/>
-      <c r="G977" s="6"/>
-      <c r="H977" s="6"/>
-      <c r="I977" s="6"/>
-      <c r="J977" s="6"/>
-      <c r="K977" s="6"/>
-      <c r="L977" s="6"/>
-      <c r="M977" s="6"/>
-      <c r="N977" s="6"/>
-      <c r="O977" s="6"/>
-      <c r="P977" s="6"/>
-      <c r="Q977" s="6"/>
-      <c r="R977" s="6"/>
-      <c r="S977" s="6"/>
-      <c r="T977" s="6"/>
-      <c r="U977" s="6"/>
-      <c r="V977" s="6"/>
-      <c r="W977" s="6"/>
-      <c r="X977" s="6"/>
-      <c r="Y977" s="6"/>
-      <c r="Z977" s="6"/>
-      <c r="AA977" s="6"/>
-      <c r="AB977" s="6"/>
-      <c r="AC977" s="6"/>
+      <c r="A977" s="1"/>
+      <c r="B977" s="1"/>
+      <c r="C977" s="1"/>
+      <c r="D977" s="1"/>
+      <c r="E977" s="1"/>
+      <c r="F977" s="1"/>
+      <c r="G977" s="1"/>
+      <c r="H977" s="1"/>
+      <c r="I977" s="1"/>
+      <c r="J977" s="1"/>
+      <c r="K977" s="1"/>
+      <c r="L977" s="1"/>
+      <c r="M977" s="1"/>
+      <c r="N977" s="1"/>
+      <c r="O977" s="1"/>
+      <c r="P977" s="1"/>
+      <c r="Q977" s="1"/>
+      <c r="R977" s="1"/>
+      <c r="S977" s="1"/>
+      <c r="T977" s="1"/>
+      <c r="U977" s="1"/>
+      <c r="V977" s="1"/>
+      <c r="W977" s="1"/>
+      <c r="X977" s="1"/>
+      <c r="Y977" s="1"/>
+      <c r="Z977" s="1"/>
+      <c r="AA977" s="1"/>
+      <c r="AB977" s="1"/>
+      <c r="AC977" s="1"/>
     </row>
     <row r="978" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="1"/>
@@ -33918,37 +33854,6 @@
       <c r="AB988" s="1"/>
       <c r="AC988" s="1"/>
     </row>
-    <row r="989" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A989" s="1"/>
-      <c r="B989" s="1"/>
-      <c r="C989" s="1"/>
-      <c r="D989" s="1"/>
-      <c r="E989" s="1"/>
-      <c r="F989" s="1"/>
-      <c r="G989" s="1"/>
-      <c r="H989" s="1"/>
-      <c r="I989" s="1"/>
-      <c r="J989" s="1"/>
-      <c r="K989" s="1"/>
-      <c r="L989" s="1"/>
-      <c r="M989" s="1"/>
-      <c r="N989" s="1"/>
-      <c r="O989" s="1"/>
-      <c r="P989" s="1"/>
-      <c r="Q989" s="1"/>
-      <c r="R989" s="1"/>
-      <c r="S989" s="1"/>
-      <c r="T989" s="1"/>
-      <c r="U989" s="1"/>
-      <c r="V989" s="1"/>
-      <c r="W989" s="1"/>
-      <c r="X989" s="1"/>
-      <c r="Y989" s="1"/>
-      <c r="Z989" s="1"/>
-      <c r="AA989" s="1"/>
-      <c r="AB989" s="1"/>
-      <c r="AC989" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:S1"/>

--- a/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
+++ b/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDC285C-DCE5-A24B-9D37-6BA181E8DCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D14F8B-8A66-9844-9862-765518801869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>liv_026009</t>
-  </si>
-  <si>
-    <t>Anonymous; Abdool Meseeh</t>
   </si>
   <si>
     <t>Abdool Meseeh's Hymn</t>
@@ -1085,6 +1082,9 @@
   <si>
     <t>The False and the True Vasanta Rayar</t>
   </si>
+  <si>
+    <t>Anonymous; [Abdul] Meseeh</t>
+  </si>
 </sst>
 </file>
 
@@ -1652,7 +1652,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1682,7 +1682,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>25</v>
@@ -1991,7 +1991,7 @@
         <v>45</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>29</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>25</v>
@@ -2222,20 +2222,20 @@
         <v>21</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>70</v>
+        <v>334</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5">
@@ -2246,16 +2246,16 @@
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="R10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="11" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>21</v>
@@ -2285,20 +2285,20 @@
         <v>21</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="L11" s="5">
         <v>1</v>
@@ -2307,20 +2307,20 @@
         <v>19</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="12" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>21</v>
@@ -2350,20 +2350,20 @@
         <v>21</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="L12" s="5">
         <v>2</v>
@@ -2372,20 +2372,20 @@
         <v>3</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q12" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="13" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>21</v>
@@ -2415,20 +2415,20 @@
         <v>21</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="L13" s="5">
         <v>2</v>
@@ -2437,7 +2437,7 @@
         <v>4</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5" t="s">
@@ -2450,7 +2450,7 @@
         <v>29</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="14" spans="1:29" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -2480,20 +2480,20 @@
         <v>21</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="L14" s="5">
         <v>2</v>
@@ -2502,20 +2502,20 @@
         <v>6</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5" t="s">
         <v>51</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R14" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="15" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
@@ -2545,20 +2545,20 @@
         <v>21</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="L15" s="5">
         <v>2</v>
@@ -2567,20 +2567,20 @@
         <v>10</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q15" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="R15" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="16" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>21</v>
@@ -2610,20 +2610,20 @@
         <v>21</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="L16" s="5">
         <v>2</v>
@@ -2639,13 +2639,13 @@
         <v>45</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="17" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>21</v>
@@ -2675,20 +2675,20 @@
         <v>21</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J17" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="L17" s="5">
         <v>2</v>
@@ -2697,20 +2697,20 @@
         <v>9</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R17" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="18" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>21</v>
@@ -2740,20 +2740,20 @@
         <v>21</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="L18" s="5">
         <v>2</v>
@@ -2762,20 +2762,20 @@
         <v>10</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R18" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="19" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>21</v>
@@ -2805,20 +2805,20 @@
         <v>21</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>25</v>
       </c>
       <c r="J19" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>136</v>
       </c>
       <c r="L19" s="5">
         <v>2</v>
@@ -2827,20 +2827,20 @@
         <v>11</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R19" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="20" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>21</v>
@@ -2870,20 +2870,20 @@
         <v>21</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J20" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="L20" s="5">
         <v>2</v>
@@ -2892,20 +2892,20 @@
         <v>12</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="21" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>21</v>
@@ -2935,20 +2935,20 @@
         <v>21</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J21" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="L21" s="5">
         <v>3</v>
@@ -2964,13 +2964,13 @@
         <v>24</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R21" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="22" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>21</v>
@@ -3000,20 +3000,20 @@
         <v>21</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J22" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="L22" s="5">
         <v>3</v>
@@ -3022,20 +3022,20 @@
         <v>7</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5" t="s">
         <v>51</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="23" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>21</v>
@@ -3065,20 +3065,20 @@
         <v>21</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J23" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>165</v>
       </c>
       <c r="L23" s="5">
         <v>3</v>
@@ -3087,20 +3087,20 @@
         <v>9</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5" t="s">
         <v>51</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R23" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="24" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>21</v>
@@ -3130,20 +3130,20 @@
         <v>21</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J24" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>173</v>
       </c>
       <c r="L24" s="5">
         <v>3</v>
@@ -3152,20 +3152,20 @@
         <v>11</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q24" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="R24" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="25" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>21</v>
@@ -3195,20 +3195,20 @@
         <v>21</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J25" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="K25" s="9" t="s">
         <v>181</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>182</v>
       </c>
       <c r="L25" s="5">
         <v>4</v>
@@ -3217,20 +3217,20 @@
         <v>6</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5" t="s">
         <v>45</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R25" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="26" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>21</v>
@@ -3260,20 +3260,20 @@
         <v>21</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J26" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="L26" s="5">
         <v>4</v>
@@ -3282,20 +3282,20 @@
         <v>7</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5" t="s">
         <v>45</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R26" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="27" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>21</v>
@@ -3325,20 +3325,20 @@
         <v>21</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J27" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K27" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="L27" s="5">
         <v>1</v>
@@ -3354,13 +3354,13 @@
         <v>51</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R27" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="28" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>21</v>
@@ -3390,22 +3390,22 @@
         <v>21</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>203</v>
-      </c>
       <c r="H28" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J28" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K28" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="L28" s="5">
         <v>1</v>
@@ -3420,16 +3420,16 @@
         <v>2</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="29" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>21</v>
@@ -3459,20 +3459,20 @@
         <v>21</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J29" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="L29" s="5">
         <v>1</v>
@@ -3487,16 +3487,16 @@
         <v>2</v>
       </c>
       <c r="P29" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q29" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="R29" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="30" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>21</v>
@@ -3526,22 +3526,22 @@
         <v>21</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>215</v>
-      </c>
       <c r="H30" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="K30" s="9" t="s">
         <v>216</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>217</v>
       </c>
       <c r="L30" s="5">
         <v>1</v>
@@ -3556,16 +3556,16 @@
         <v>44198</v>
       </c>
       <c r="P30" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q30" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="R30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="31" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>21</v>
@@ -3595,20 +3595,20 @@
         <v>21</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J31" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="L31" s="5">
         <v>1</v>
@@ -3626,13 +3626,13 @@
         <v>45</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R31" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="32" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>21</v>
@@ -3662,20 +3662,20 @@
         <v>21</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="K32" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="L32" s="5">
         <v>1</v>
@@ -3693,13 +3693,13 @@
         <v>24</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R32" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="33" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>21</v>
@@ -3729,20 +3729,20 @@
         <v>21</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J33" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K33" s="9" t="s">
         <v>235</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>236</v>
       </c>
       <c r="L33" s="5">
         <v>1</v>
@@ -3757,16 +3757,16 @@
         <v>2</v>
       </c>
       <c r="P33" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q33" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="Q33" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="R33" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
@@ -3781,7 +3781,7 @@
     </row>
     <row r="34" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>21</v>
@@ -3796,20 +3796,20 @@
         <v>21</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="K34" s="9" t="s">
         <v>242</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>243</v>
       </c>
       <c r="L34" s="5">
         <v>1</v>
@@ -3818,22 +3818,22 @@
         <v>9</v>
       </c>
       <c r="N34" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="O34" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="P34" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="P34" s="5" t="s">
+      <c r="Q34" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="Q34" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="R34" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
@@ -3848,7 +3848,7 @@
     </row>
     <row r="35" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>21</v>
@@ -3863,20 +3863,20 @@
         <v>21</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J35" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="K35" s="9" t="s">
         <v>251</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>252</v>
       </c>
       <c r="L35" s="5">
         <v>1</v>
@@ -3894,13 +3894,13 @@
         <v>45</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R35" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="36" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>21</v>
@@ -3930,20 +3930,20 @@
         <v>21</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J36" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="K36" s="9" t="s">
         <v>251</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>252</v>
       </c>
       <c r="L36" s="5">
         <v>1</v>
@@ -3952,22 +3952,22 @@
         <v>11</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O36" s="5">
         <v>2</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R36" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="37" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>21</v>
@@ -4001,16 +4001,16 @@
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J37" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="K37" s="9" t="s">
         <v>251</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>252</v>
       </c>
       <c r="L37" s="5">
         <v>1</v>
@@ -4028,13 +4028,13 @@
         <v>45</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R37" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
@@ -4049,7 +4049,7 @@
     </row>
     <row r="38" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>21</v>
@@ -4064,20 +4064,20 @@
         <v>21</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J38" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="K38" s="9" t="s">
         <v>263</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>264</v>
       </c>
       <c r="L38" s="5">
         <v>1</v>
@@ -4095,13 +4095,13 @@
         <v>45</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R38" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="39" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>21</v>
@@ -4131,20 +4131,20 @@
         <v>21</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J39" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="K39" s="9" t="s">
         <v>263</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>264</v>
       </c>
       <c r="L39" s="5">
         <v>1</v>
@@ -4153,22 +4153,22 @@
         <v>12</v>
       </c>
       <c r="N39" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="O39" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="O39" s="5" t="s">
-        <v>271</v>
       </c>
       <c r="P39" s="5" t="s">
         <v>45</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R39" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="40" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>21</v>
@@ -4198,20 +4198,20 @@
         <v>21</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J40" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="K40" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>276</v>
       </c>
       <c r="L40" s="5">
         <v>2</v>
@@ -4229,13 +4229,13 @@
         <v>45</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R40" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="41" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>21</v>
@@ -4265,20 +4265,20 @@
         <v>21</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J41" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="K41" s="9" t="s">
         <v>281</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>282</v>
       </c>
       <c r="L41" s="5">
         <v>2</v>
@@ -4296,13 +4296,13 @@
         <v>51</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R41" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="42" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>21</v>
@@ -4332,20 +4332,20 @@
         <v>21</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J42" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="K42" s="9" t="s">
         <v>281</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>282</v>
       </c>
       <c r="L42" s="5">
         <v>2</v>
@@ -4363,13 +4363,13 @@
         <v>51</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R42" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="43" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>21</v>
@@ -4399,20 +4399,20 @@
         <v>21</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J43" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="K43" s="9" t="s">
         <v>291</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>292</v>
       </c>
       <c r="L43" s="5">
         <v>2</v>
@@ -4430,13 +4430,13 @@
         <v>51</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R43" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
@@ -4451,7 +4451,7 @@
     </row>
     <row r="44" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>21</v>
@@ -4466,20 +4466,20 @@
         <v>21</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I44" s="18" t="s">
         <v>25</v>
       </c>
       <c r="J44" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="K44" s="20" t="s">
         <v>291</v>
-      </c>
-      <c r="K44" s="20" t="s">
-        <v>292</v>
       </c>
       <c r="L44" s="18">
         <v>2</v>
@@ -4488,22 +4488,22 @@
         <v>15</v>
       </c>
       <c r="N44" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O44" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P44" s="18" t="s">
         <v>45</v>
       </c>
       <c r="Q44" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R44" s="18" t="s">
         <v>29</v>
       </c>
       <c r="S44" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T44" s="18"/>
       <c r="U44" s="18"/>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="45" spans="1:29" s="28" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B45" s="26" t="s">
         <v>21</v>
@@ -4533,20 +4533,20 @@
         <v>21</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G45" s="26"/>
       <c r="H45" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I45" s="26" t="s">
         <v>25</v>
       </c>
       <c r="J45" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="K45" s="26" t="s">
         <v>299</v>
-      </c>
-      <c r="K45" s="26" t="s">
-        <v>300</v>
       </c>
       <c r="L45" s="26">
         <v>2</v>
@@ -4555,20 +4555,20 @@
         <v>16</v>
       </c>
       <c r="N45" s="26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O45" s="27"/>
       <c r="P45" s="26" t="s">
         <v>45</v>
       </c>
       <c r="Q45" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R45" s="26" t="s">
         <v>29</v>
       </c>
       <c r="S45" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T45" s="27"/>
       <c r="U45" s="27"/>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="46" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B46" s="22" t="s">
         <v>21</v>
@@ -4598,20 +4598,20 @@
         <v>21</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G46" s="22"/>
       <c r="H46" s="29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I46" s="22" t="s">
         <v>25</v>
       </c>
       <c r="J46" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="K46" s="24" t="s">
         <v>299</v>
-      </c>
-      <c r="K46" s="24" t="s">
-        <v>300</v>
       </c>
       <c r="L46" s="22">
         <v>2</v>
@@ -4629,13 +4629,13 @@
         <v>45</v>
       </c>
       <c r="Q46" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R46" s="22" t="s">
         <v>29</v>
       </c>
       <c r="S46" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T46" s="22"/>
       <c r="U46" s="22"/>
@@ -33451,7 +33451,7 @@
     </row>
     <row r="976" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B976" s="13"/>
       <c r="C976" s="13"/>

--- a/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
+++ b/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D14F8B-8A66-9844-9862-765518801869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F95653-F403-D344-BAFE-685FAB1B6AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,6 +290,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Reported first-person account of Dennis's story (while he was ill?); Original publication:</t>
     </r>
@@ -299,6 +300,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Church Missionary Juvenile Instructor</t>
     </r>
@@ -307,6 +309,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (June and July 1850)</t>
     </r>
@@ -338,6 +341,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">A British-Guianan missionary account of snake catching; possible original publication (unconfirmed): </t>
     </r>
@@ -347,6 +351,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Brett's Indian Missions in Guiana</t>
     </r>
@@ -355,6 +360,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>, 35-37</t>
     </r>
@@ -1053,9 +1059,6 @@
     <t>[Letter to King George II] A letter from the King of Dahomey to King George II</t>
   </si>
   <si>
-    <t>Praying for Rain in China. Plain Directions as to Prayer for Rain</t>
-  </si>
-  <si>
     <t>Gleanings from Recent Letters. The Gospel Preached by a Captive Yoruba Girl</t>
   </si>
   <si>
@@ -1080,10 +1083,13 @@
     <t>[Amazonian Battle Poem] Amazon War Song</t>
   </si>
   <si>
-    <t>The False and the True Vasanta Rayar</t>
+    <t>Anonymous; [Abdul] Meseeh</t>
   </si>
   <si>
-    <t>Anonymous; [Abdul] Meseeh</t>
+    <t>Praying for Rain in China</t>
+  </si>
+  <si>
+    <t>The False and the True Vasanta Rayar. A Narrative of Religious Excitement in Southern India Ten Years Ago</t>
   </si>
 </sst>
 </file>
@@ -1112,28 +1118,33 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1651,8 +1662,8 @@
   <dimension ref="A1:AC988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1991,7 +2002,7 @@
         <v>45</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>29</v>
@@ -2222,7 +2233,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
@@ -3396,7 +3407,7 @@
         <v>202</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>25</v>
@@ -3509,7 +3520,7 @@
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
     </row>
-    <row r="30" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>212</v>
       </c>
@@ -3532,7 +3543,7 @@
         <v>214</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>25</v>
@@ -3796,7 +3807,7 @@
         <v>21</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
@@ -3961,7 +3972,7 @@
         <v>209</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R36" s="5" t="s">
         <v>29</v>
@@ -4332,7 +4343,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5" t="s">
@@ -4470,7 +4481,7 @@
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I44" s="18" t="s">
         <v>25</v>
@@ -4533,7 +4544,7 @@
         <v>21</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G45" s="26"/>
       <c r="H45" s="26" t="s">
@@ -4562,7 +4573,7 @@
         <v>45</v>
       </c>
       <c r="Q45" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R45" s="26" t="s">
         <v>29</v>
@@ -4602,7 +4613,7 @@
       </c>
       <c r="G46" s="22"/>
       <c r="H46" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I46" s="22" t="s">
         <v>25</v>

--- a/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
+++ b/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/liv_026000-series-metadata-AMD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_026000-series-metadata-AMD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FA224C-C21D-FD4A-A711-D14D4ECD23CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B54BBAF-FE58-A64D-8364-925FA5D96D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,9 +289,6 @@
   </si>
   <si>
     <t>liv_026014</t>
-  </si>
-  <si>
-    <t>Anonymous; [W. Clarkson]; Gungaram; "Native Catechist"</t>
   </si>
   <si>
     <t>The Hindus</t>
@@ -908,6 +905,9 @@
   <si>
     <t>The False and the True Vasanta Rayar. A Narrative of Religious Excitement in Southern India Ten Years Ago</t>
   </si>
+  <si>
+    <t>Anonymous; [W. Clarkson]; Gungaram</t>
+  </si>
 </sst>
 </file>
 
@@ -1471,9 +1471,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1502,7 +1502,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>24</v>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>24</v>
@@ -2019,7 +2019,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>24</v>
@@ -2203,20 +2203,20 @@
         <v>20</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>86</v>
+        <v>291</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="L13" s="5">
         <v>2</v>
@@ -2225,7 +2225,7 @@
         <v>4</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5" t="s">
@@ -2235,7 +2235,7 @@
         <v>27</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="14" spans="1:28" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>20</v>
@@ -2265,20 +2265,20 @@
         <v>20</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="L14" s="5">
         <v>2</v>
@@ -2287,7 +2287,7 @@
         <v>6</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5" t="s">
@@ -2297,7 +2297,7 @@
         <v>27</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="15" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>20</v>
@@ -2327,20 +2327,20 @@
         <v>20</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J15" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="L15" s="5">
         <v>2</v>
@@ -2349,17 +2349,17 @@
         <v>10</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="16" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>20</v>
@@ -2389,20 +2389,20 @@
         <v>20</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J16" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="L16" s="5">
         <v>2</v>
@@ -2421,7 +2421,7 @@
         <v>27</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="17" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>20</v>
@@ -2451,20 +2451,20 @@
         <v>20</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J17" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="L17" s="5">
         <v>2</v>
@@ -2473,7 +2473,7 @@
         <v>9</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5" t="s">
@@ -2483,7 +2483,7 @@
         <v>27</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="18" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>20</v>
@@ -2513,20 +2513,20 @@
         <v>20</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>24</v>
       </c>
       <c r="J18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="L18" s="5">
         <v>2</v>
@@ -2535,7 +2535,7 @@
         <v>10</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5" t="s">
@@ -2545,7 +2545,7 @@
         <v>27</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="19" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>20</v>
@@ -2575,20 +2575,20 @@
         <v>20</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>24</v>
       </c>
       <c r="J19" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="L19" s="5">
         <v>2</v>
@@ -2597,7 +2597,7 @@
         <v>11</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5" t="s">
@@ -2607,7 +2607,7 @@
         <v>27</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="20" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>20</v>
@@ -2637,20 +2637,20 @@
         <v>20</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J20" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="L20" s="5">
         <v>2</v>
@@ -2659,7 +2659,7 @@
         <v>12</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5" t="s">
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="21" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>20</v>
@@ -2699,20 +2699,20 @@
         <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J21" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="L21" s="5">
         <v>3</v>
@@ -2731,7 +2731,7 @@
         <v>27</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="22" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>20</v>
@@ -2761,20 +2761,20 @@
         <v>20</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J22" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" s="9" t="s">
         <v>139</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>140</v>
       </c>
       <c r="L22" s="5">
         <v>3</v>
@@ -2783,7 +2783,7 @@
         <v>7</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5" t="s">
@@ -2793,7 +2793,7 @@
         <v>27</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="23" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>20</v>
@@ -2823,20 +2823,20 @@
         <v>20</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J23" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="L23" s="5">
         <v>3</v>
@@ -2845,7 +2845,7 @@
         <v>9</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5" t="s">
@@ -2855,7 +2855,7 @@
         <v>27</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="24" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>20</v>
@@ -2885,20 +2885,20 @@
         <v>20</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J24" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="L24" s="5">
         <v>3</v>
@@ -2907,17 +2907,17 @@
         <v>11</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="25" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>20</v>
@@ -2947,20 +2947,20 @@
         <v>20</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J25" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>162</v>
       </c>
       <c r="L25" s="5">
         <v>4</v>
@@ -2969,7 +2969,7 @@
         <v>6</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5" t="s">
@@ -2979,7 +2979,7 @@
         <v>27</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="26" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>20</v>
@@ -3009,20 +3009,20 @@
         <v>20</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J26" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="K26" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>169</v>
       </c>
       <c r="L26" s="5">
         <v>4</v>
@@ -3031,7 +3031,7 @@
         <v>7</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5" t="s">
@@ -3041,7 +3041,7 @@
         <v>27</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
@@ -3056,7 +3056,7 @@
     </row>
     <row r="27" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>20</v>
@@ -3071,20 +3071,20 @@
         <v>20</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J27" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="K27" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>176</v>
       </c>
       <c r="L27" s="5">
         <v>1</v>
@@ -3103,7 +3103,7 @@
         <v>27</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="28" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>20</v>
@@ -3133,22 +3133,22 @@
         <v>20</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>180</v>
-      </c>
       <c r="H28" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J28" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="K28" s="9" t="s">
         <v>181</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>182</v>
       </c>
       <c r="L28" s="5">
         <v>1</v>
@@ -3169,7 +3169,7 @@
         <v>27</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="29" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>20</v>
@@ -3199,20 +3199,20 @@
         <v>20</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J29" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="K29" s="9" t="s">
         <v>181</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>182</v>
       </c>
       <c r="L29" s="5">
         <v>1</v>
@@ -3227,13 +3227,13 @@
         <v>2</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q29" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="30" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>20</v>
@@ -3263,22 +3263,22 @@
         <v>20</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>190</v>
-      </c>
       <c r="H30" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J30" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="K30" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>192</v>
       </c>
       <c r="L30" s="5">
         <v>1</v>
@@ -3293,13 +3293,13 @@
         <v>44198</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q30" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="31" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>20</v>
@@ -3329,20 +3329,20 @@
         <v>20</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J31" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K31" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="L31" s="5">
         <v>1</v>
@@ -3363,7 +3363,7 @@
         <v>27</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="32" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>20</v>
@@ -3393,20 +3393,20 @@
         <v>20</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J32" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="K32" s="9" t="s">
         <v>202</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>203</v>
       </c>
       <c r="L32" s="5">
         <v>1</v>
@@ -3427,7 +3427,7 @@
         <v>27</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="33" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>20</v>
@@ -3457,20 +3457,20 @@
         <v>20</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J33" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="K33" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>208</v>
       </c>
       <c r="L33" s="5">
         <v>1</v>
@@ -3485,13 +3485,13 @@
         <v>2</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q33" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
@@ -3506,7 +3506,7 @@
     </row>
     <row r="34" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>20</v>
@@ -3521,20 +3521,20 @@
         <v>20</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J34" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="K34" s="9" t="s">
         <v>213</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>214</v>
       </c>
       <c r="L34" s="5">
         <v>1</v>
@@ -3543,19 +3543,19 @@
         <v>9</v>
       </c>
       <c r="N34" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="O34" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="P34" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="Q34" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="35" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>20</v>
@@ -3585,20 +3585,20 @@
         <v>20</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J35" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="K35" s="9" t="s">
         <v>221</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>222</v>
       </c>
       <c r="L35" s="5">
         <v>1</v>
@@ -3619,7 +3619,7 @@
         <v>27</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
@@ -3634,7 +3634,7 @@
     </row>
     <row r="36" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>20</v>
@@ -3649,20 +3649,20 @@
         <v>20</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J36" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="K36" s="9" t="s">
         <v>221</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>222</v>
       </c>
       <c r="L36" s="5">
         <v>1</v>
@@ -3671,19 +3671,19 @@
         <v>11</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O36" s="5">
         <v>2</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q36" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="37" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>20</v>
@@ -3717,16 +3717,16 @@
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J37" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="K37" s="9" t="s">
         <v>221</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>222</v>
       </c>
       <c r="L37" s="5">
         <v>1</v>
@@ -3747,7 +3747,7 @@
         <v>27</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="38" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>20</v>
@@ -3777,20 +3777,20 @@
         <v>20</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J38" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="K38" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="L38" s="5">
         <v>1</v>
@@ -3811,7 +3811,7 @@
         <v>27</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="39" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>20</v>
@@ -3841,20 +3841,20 @@
         <v>20</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J39" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="K39" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="L39" s="5">
         <v>1</v>
@@ -3863,10 +3863,10 @@
         <v>12</v>
       </c>
       <c r="N39" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="O39" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="O39" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="P39" s="5" t="s">
         <v>42</v>
@@ -3875,7 +3875,7 @@
         <v>27</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="40" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>20</v>
@@ -3905,20 +3905,20 @@
         <v>20</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J40" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="K40" s="9" t="s">
         <v>241</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>242</v>
       </c>
       <c r="L40" s="5">
         <v>2</v>
@@ -3939,7 +3939,7 @@
         <v>27</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
@@ -3954,7 +3954,7 @@
     </row>
     <row r="41" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>20</v>
@@ -3969,20 +3969,20 @@
         <v>20</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J41" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K41" s="9" t="s">
         <v>246</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>247</v>
       </c>
       <c r="L41" s="5">
         <v>2</v>
@@ -4003,7 +4003,7 @@
         <v>27</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="42" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>20</v>
@@ -4033,20 +4033,20 @@
         <v>20</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J42" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K42" s="9" t="s">
         <v>246</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>247</v>
       </c>
       <c r="L42" s="5">
         <v>2</v>
@@ -4067,7 +4067,7 @@
         <v>27</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="43" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>20</v>
@@ -4097,20 +4097,20 @@
         <v>20</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J43" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="K43" s="9" t="s">
         <v>254</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>255</v>
       </c>
       <c r="L43" s="5">
         <v>2</v>
@@ -4131,7 +4131,7 @@
         <v>27</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
@@ -4146,7 +4146,7 @@
     </row>
     <row r="44" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>20</v>
@@ -4161,20 +4161,20 @@
         <v>20</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I44" s="18" t="s">
         <v>24</v>
       </c>
       <c r="J44" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="K44" s="20" t="s">
         <v>254</v>
-      </c>
-      <c r="K44" s="20" t="s">
-        <v>255</v>
       </c>
       <c r="L44" s="18">
         <v>2</v>
@@ -4183,10 +4183,10 @@
         <v>15</v>
       </c>
       <c r="N44" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O44" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P44" s="18" t="s">
         <v>42</v>
@@ -4195,7 +4195,7 @@
         <v>27</v>
       </c>
       <c r="R44" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S44" s="18"/>
       <c r="T44" s="18"/>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="45" spans="1:28" s="28" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B45" s="26" t="s">
         <v>20</v>
@@ -4225,20 +4225,20 @@
         <v>20</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G45" s="26"/>
       <c r="H45" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I45" s="26" t="s">
         <v>24</v>
       </c>
       <c r="J45" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="K45" s="26" t="s">
         <v>261</v>
-      </c>
-      <c r="K45" s="26" t="s">
-        <v>262</v>
       </c>
       <c r="L45" s="26">
         <v>2</v>
@@ -4247,7 +4247,7 @@
         <v>16</v>
       </c>
       <c r="N45" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O45" s="27"/>
       <c r="P45" s="26" t="s">
@@ -4257,7 +4257,7 @@
         <v>27</v>
       </c>
       <c r="R45" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S45" s="27"/>
       <c r="T45" s="27"/>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="46" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B46" s="22" t="s">
         <v>20</v>
@@ -4287,20 +4287,20 @@
         <v>20</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G46" s="22"/>
       <c r="H46" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I46" s="22" t="s">
         <v>24</v>
       </c>
       <c r="J46" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="K46" s="24" t="s">
         <v>261</v>
-      </c>
-      <c r="K46" s="24" t="s">
-        <v>262</v>
       </c>
       <c r="L46" s="22">
         <v>2</v>
@@ -4321,7 +4321,7 @@
         <v>27</v>
       </c>
       <c r="R46" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S46" s="22"/>
       <c r="T46" s="22"/>
